--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.348</v>
+        <v>0.334</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.222</v>
+        <v>20.572</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.208</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.926</v>
+        <v>23.051</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.758</v>
+        <v>0.509</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.028</v>
+        <v>18.552</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.25175615421521</v>
+        <v>-6.008399683420102</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.25175615421521</v>
+        <v>26.25994971611347</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.25175615421521</v>
+        <v>34.26611982425251</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.25175615421521</v>
+        <v>3.206807389248148</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.25175615421521</v>
+        <v>17.71101674370683</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.25175615421521</v>
+        <v>24.38696318092192</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.25175615421521</v>
+        <v>16.15968292400358</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.25175615421521</v>
+        <v>23.92289338222778</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.25175615421521</v>
+        <v>29.42647581918182</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.25175615421521</v>
+        <v>29.70855789421315</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.25175615421521</v>
+        <v>37.22245447562872</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.25175615421521</v>
+        <v>41.7804021928716</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.25175615421521</v>
+        <v>10.86811674165286</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.25175615421521</v>
+        <v>29.7350987536474</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.25175615421521</v>
+        <v>37.87560218717734</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.25175615421521</v>
+        <v>-2.434499974977179</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.25175615421521</v>
+        <v>29.83806233049196</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.25175615421521</v>
+        <v>37.84654428175187</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.25175615421521</v>
+        <v>6.773685253470795</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.25175615421521</v>
+        <v>21.28190480702877</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.25175615421521</v>
+        <v>27.95959855206123</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.25175615421521</v>
+        <v>19.73121709232756</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.25175615421521</v>
+        <v>27.49786386979982</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.25175615421521</v>
+        <v>33.00286197524186</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.25175615421521</v>
+        <v>33.28569767258099</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.25175615421521</v>
+        <v>40.80251533258407</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.25175615421521</v>
+        <v>45.36169792893835</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.25175615421521</v>
+        <v>14.44356512319435</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.25175615421521</v>
+        <v>33.31600282840358</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.25175615421521</v>
+        <v>41.45810726233341</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.25175615421521</v>
+        <v>6.182780902303271</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.25175615421521</v>
+        <v>38.45685508905805</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.25175615421521</v>
+        <v>46.46625397057513</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.25175615421521</v>
+        <v>15.39151809265169</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.25175615421521</v>
+        <v>29.90132074049867</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.25175615421521</v>
+        <v>36.57985648792882</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.25175615421521</v>
+        <v>28.35144938212553</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.25175615421521</v>
+        <v>36.11953031458992</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.25175615421521</v>
+        <v>41.6252567628621</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.25175615421521</v>
+        <v>41.90948662749323</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.25175615421521</v>
+        <v>49.4269890162769</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.25175615421521</v>
+        <v>53.986662256019</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.25175615421521</v>
+        <v>23.0651024349166</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.25175615421521</v>
+        <v>41.93932350294093</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.25175615421521</v>
+        <v>50.08238076190397</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.25175615421521</v>
+        <v>-2.258448686955411</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.25175615421521</v>
+        <v>30.01071194060236</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.25175615421521</v>
+        <v>38.01643594816547</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.25175615421521</v>
+        <v>6.957271641811268</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.25175615421521</v>
+        <v>21.46238442509601</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.25175615421521</v>
+        <v>28.13789595309728</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.25175615421521</v>
+        <v>19.91056519601076</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.25175615421521</v>
+        <v>27.67460531984462</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.25175615421521</v>
+        <v>33.17780978809898</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.25175615421521</v>
+        <v>33.45998728239564</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.25175615421521</v>
+        <v>40.97419671230372</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.25175615421521</v>
+        <v>45.53169108880157</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.25175615421521</v>
+        <v>14.61819678841422</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.25175615421521</v>
+        <v>33.48625553765847</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.25175615421521</v>
+        <v>41.62624514354908</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.25175615421521</v>
+        <v>1.313288337128562</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.25175615421521</v>
+        <v>33.58666189207334</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.25175615421521</v>
+        <v>41.59469759641555</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.25175615421521</v>
+        <v>10.52198674490986</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.25175615421521</v>
+        <v>25.03110969666758</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.25175615421521</v>
+        <v>31.70836838171302</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.25175615421521</v>
+        <v>23.47993671294349</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.25175615421521</v>
+        <v>31.24741311593126</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.25175615421521</v>
+        <v>36.75203311587071</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.25175615421521</v>
+        <v>37.03496434139216</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.25175615421521</v>
+        <v>44.5520947849728</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.25175615421521</v>
+        <v>49.11082392270222</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.25175615421521</v>
+        <v>18.19148260175833</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.25175615421521</v>
+        <v>37.06499700057642</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.25175615421521</v>
+        <v>45.20658746405157</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.25175615421521</v>
+        <v>9.932355704893858</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.25175615421521</v>
+        <v>42.20724120546648</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.25175615421521</v>
+        <v>50.2161938073975</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.25175615421521</v>
+        <v>19.14160607641505</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.25175615421521</v>
+        <v>33.652312214602</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.25175615421521</v>
+        <v>40.33041288050534</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.25175615421521</v>
+        <v>32.10195559217433</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.25175615421521</v>
+        <v>39.8708662394375</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.25175615421521</v>
+        <v>45.37621456660823</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.25175615421521</v>
+        <v>45.66053982953789</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.25175615421521</v>
+        <v>53.1783549949882</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.25175615421521</v>
+        <v>57.73757477979981</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.25175615421521</v>
+        <v>26.8148063615284</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.25175615421521</v>
+        <v>45.69010424647589</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.25175615421521</v>
+        <v>53.83264748982909</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.25175615421521</v>
+        <v>-3.196471877558942</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.25175615421521</v>
+        <v>29.07260173230437</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.25175615421521</v>
+        <v>37.07821171394206</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.25175615421521</v>
+        <v>6.018915341392436</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.25175615421521</v>
+        <v>20.52392136722718</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.25175615421521</v>
+        <v>27.19931862308803</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.25175615421521</v>
+        <v>18.97224668798363</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.25175615421521</v>
+        <v>26.7361843207976</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.25175615421521</v>
+        <v>32.2392866098664</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.25175615421521</v>
+        <v>32.52168226237662</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.25175615421521</v>
+        <v>40.03587508385359</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.25175615421521</v>
+        <v>44.59327704596736</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.25175615421521</v>
+        <v>13.68002419605553</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.25175615421521</v>
+        <v>32.54798116462981</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.25175615421521</v>
+        <v>40.68784843397528</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.25175615421521</v>
+        <v>0.3771601846209123</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.25175615421521</v>
+        <v>32.65044677721513</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.25175615421521</v>
+        <v>40.65836844437464</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.25175615421521</v>
+        <v>9.585525594161332</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.25175615421521</v>
+        <v>24.09454183028159</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.25175615421521</v>
+        <v>30.77168623482358</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.25175615421521</v>
+        <v>22.54351342567983</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.25175615421521</v>
+        <v>30.31088737220269</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.25175615421521</v>
+        <v>35.8154051860923</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.25175615421521</v>
+        <v>36.0985544866406</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.25175615421521</v>
+        <v>43.61566833332105</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.25175615421521</v>
+        <v>48.17430505355443</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.25175615421521</v>
+        <v>17.2552051154299</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.25175615421521</v>
+        <v>36.12861776705457</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.25175615421521</v>
+        <v>44.27008589045359</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.25175615421521</v>
+        <v>8.996136766096321</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.25175615421521</v>
+        <v>41.27093531513511</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.25175615421521</v>
+        <v>49.27977388470421</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.25175615421521</v>
+        <v>18.20505412385202</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.25175615421521</v>
+        <v>32.71565355913034</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.25175615421521</v>
+        <v>39.39363994754668</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.25175615421521</v>
+        <v>31.16544149907971</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.25175615421521</v>
+        <v>38.93424970210113</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.25175615421521</v>
+        <v>44.43949584550804</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.25175615421521</v>
+        <v>44.7240391721169</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.25175615421521</v>
+        <v>52.24183773999172</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.25175615421521</v>
+        <v>56.80096511283372</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.25175615421521</v>
+        <v>25.8784380501448</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.25175615421521</v>
+        <v>44.75363419915035</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.25175615421521</v>
+        <v>52.89605510403734</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.25175615421521</v>
+        <v>-9.594474728063496</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.25175615421521</v>
+        <v>22.67344627154394</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.25175615421521</v>
+        <v>30.6793888199198</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.25175615421521</v>
+        <v>-0.379780272054667</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.25175615421521</v>
+        <v>14.12409824098082</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.25175615421521</v>
+        <v>20.79983085571379</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.25175615421521</v>
+        <v>12.57280863442369</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.25175615421521</v>
+        <v>20.33575163663769</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.25175615421521</v>
+        <v>25.83914727329621</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.25175615421521</v>
+        <v>26.12135639983361</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.25175615421521</v>
+        <v>33.63516376628191</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.25175615421521</v>
+        <v>38.19301698654973</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.25175615421521</v>
+        <v>7.281382391642602</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.25175615421521</v>
+        <v>26.14798880094471</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.25175615421521</v>
+        <v>34.28826337504707</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.25175615421521</v>
+        <v>-6.020846859598045</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.25175615421521</v>
+        <v>26.25128699355613</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.25175615421521</v>
+        <v>34.25954133861497</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.25175615421521</v>
+        <v>3.186825771996006</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.25175615421521</v>
+        <v>17.69471442108951</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.25175615421521</v>
+        <v>24.3721943045061</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.25175615421521</v>
+        <v>23.91045020202383</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.25175615421521</v>
+        <v>29.41526147447981</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.25175615421521</v>
+        <v>29.69822424709658</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.25175615421521</v>
+        <v>37.21495265664051</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.25175615421521</v>
+        <v>41.77404072527653</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.25175615421521</v>
+        <v>10.85655885924367</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.25175615421521</v>
+        <v>29.72862088205212</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.25175615421521</v>
+        <v>37.87049641628911</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.25175615421521</v>
+        <v>2.597054822623214</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.25175615421521</v>
+        <v>34.87070056799163</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.25175615421521</v>
+        <v>42.87987184015466</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.25175615421521</v>
+        <v>11.80527940617056</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.25175615421521</v>
+        <v>26.31475116331077</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.25175615421521</v>
+        <v>32.99307303932013</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.25175615421521</v>
+        <v>24.76492405993221</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.25175615421521</v>
+        <v>32.53273749121316</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.25175615421521</v>
+        <v>38.03827709544722</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.25175615421521</v>
+        <v>38.32263396683603</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.25175615421521</v>
+        <v>45.84004710228051</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.25175615421521</v>
+        <v>50.39962581556366</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.25175615421521</v>
+        <v>19.47871692105033</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.25175615421521</v>
+        <v>38.35256232225716</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.25175615421521</v>
+        <v>46.49539066942631</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.25175615421521</v>
+        <v>-1.05707897967833</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.25175615421521</v>
+        <v>31.21167092031995</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.25175615421521</v>
+        <v>39.21761748747971</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.25175615421521</v>
+        <v>8.158367370704887</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.25175615421521</v>
+        <v>22.6630362225488</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.25175615421521</v>
+        <v>29.33878210063707</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.25175615421521</v>
+        <v>21.11149738899004</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.25175615421521</v>
+        <v>28.87513728503924</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.25175615421521</v>
+        <v>34.3785474701269</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.25175615421521</v>
+        <v>34.66047390159641</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.25175615421521</v>
+        <v>42.17460287736738</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.25175615421521</v>
+        <v>46.73243995695903</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.25175615421521</v>
+        <v>15.81965701812836</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.25175615421521</v>
+        <v>34.68709765805303</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.25175615421521</v>
+        <v>42.82738119819222</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.25175615421521</v>
+        <v>2.518678045938906</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.25175615421521</v>
+        <v>34.79164086394936</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.25175615421521</v>
+        <v>42.7998991748204</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.25175615421521</v>
+        <v>11.72710264623489</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.25175615421521</v>
+        <v>26.2357816975128</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.25175615421521</v>
+        <v>32.91327478626985</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.25175615421521</v>
+        <v>32.45196526981132</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.25175615421521</v>
+        <v>37.95679103700498</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.25175615421521</v>
+        <v>38.23947110697858</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.25175615421521</v>
+        <v>45.75652114908981</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.25175615421521</v>
+        <v>50.31559304730236</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.25175615421521</v>
+        <v>19.39696281790392</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.25175615421521</v>
+        <v>38.26985914711971</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.25175615421521</v>
+        <v>46.41174358931877</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.25175615421521</v>
+        <v>11.13518303766053</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.25175615421521</v>
+        <v>43.40965768576458</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.25175615421521</v>
+        <v>51.41883295112515</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.25175615421521</v>
+        <v>20.34415952472519</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.25175615421521</v>
+        <v>34.85442162997784</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.25175615421521</v>
+        <v>41.5327567403211</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.25175615421521</v>
+        <v>33.30434535939613</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.25175615421521</v>
+        <v>41.07285569381505</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.25175615421521</v>
+        <v>46.57840981968408</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.25175615421521</v>
+        <v>46.86248404716351</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.25175615421521</v>
+        <v>54.38021879860124</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.25175615421521</v>
+        <v>58.93978134865809</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.25175615421521</v>
+        <v>28.01772414572346</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.25175615421521</v>
+        <v>46.8924038082849</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.25175615421521</v>
+        <v>55.03524108824828</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.25175615421521</v>
+        <v>1.487318137355452</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.25175615421521</v>
+        <v>33.75490676359717</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.25175615421521</v>
+        <v>41.75993688257321</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.25175615421521</v>
+        <v>10.70291616330061</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.25175615421521</v>
+        <v>25.20755743422747</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.25175615421521</v>
+        <v>31.88249868021725</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.25175615421521</v>
+        <v>23.6555513285435</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.25175615421521</v>
+        <v>31.41949950283568</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.25175615421521</v>
+        <v>36.92223245438569</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.25175615421521</v>
+        <v>37.20420530715941</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.25175615421521</v>
+        <v>44.71819134253334</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.25175615421521</v>
+        <v>49.27535388195778</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.25175615421521</v>
+        <v>18.36334740917945</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.25175615421521</v>
+        <v>37.23058353254984</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.25175615421521</v>
+        <v>45.36990812526115</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.25175615421521</v>
+        <v>5.064688333846412</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.25175615421521</v>
+        <v>37.33648971298575</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.25175615421521</v>
+        <v>45.34383129927684</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.25175615421521</v>
+        <v>14.27326513221836</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.25175615421521</v>
+        <v>28.78191642965586</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.25175615421521</v>
+        <v>35.4586046296691</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.25175615421521</v>
+        <v>27.23055662655698</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.25175615421521</v>
+        <v>34.99794096709669</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.25175615421521</v>
+        <v>40.50208927577963</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.25175615421521</v>
+        <v>40.78481570297375</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.25175615421521</v>
+        <v>48.301722624927</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.25175615421521</v>
+        <v>52.86011980860118</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.25175615421521</v>
+        <v>21.9422665536816</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.25175615421521</v>
+        <v>40.81495811323062</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.25175615421521</v>
+        <v>48.95588335913427</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.25175615421521</v>
+        <v>13.68173645838075</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.25175615421521</v>
+        <v>22.89086505992619</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.25175615421521</v>
+        <v>37.40109934147866</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.25175615421521</v>
+        <v>44.0786295058393</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.25175615421521</v>
+        <v>35.85055588975555</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.25175615421521</v>
+        <v>43.61937429233998</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.25175615421521</v>
+        <v>49.124250913871</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.25175615421521</v>
+        <v>49.40837136400133</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.25175615421521</v>
+        <v>56.92596292714071</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.25175615421521</v>
+        <v>61.48485073279263</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.25175615421521</v>
+        <v>30.56357068961571</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.25175615421521</v>
+        <v>49.43804552641162</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.25175615421521</v>
+        <v>57.5799235288284</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.25175615421521</v>
+        <v>-8.976797842748091</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.25175615421521</v>
+        <v>23.28960662119047</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.25175615421521</v>
+        <v>31.29500976116386</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.25175615421521</v>
+        <v>0.2378787091535841</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.25175615421521</v>
+        <v>14.74125923094513</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.25175615421521</v>
+        <v>21.41651890060697</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.25175615421521</v>
+        <v>13.18996748673779</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.25175615421521</v>
+        <v>20.95276211557583</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.25175615421521</v>
+        <v>26.4557632048413</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.25175615421521</v>
+        <v>26.73822154150488</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.25175615421521</v>
+        <v>34.25162018724537</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.25175615421521</v>
+        <v>38.80894513794359</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.25175615421521</v>
+        <v>7.898535852388783</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.25175615421521</v>
+        <v>26.76448478989933</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.25175615421521</v>
+        <v>34.90416712565953</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.25175615421521</v>
+        <v>-5.402383167477332</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.25175615421521</v>
+        <v>26.86823405332401</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.25175615421521</v>
+        <v>34.87594888504119</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.25175615421521</v>
+        <v>3.805272101053411</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.25175615421521</v>
+        <v>18.31266266410213</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.25175615421521</v>
+        <v>24.98966951273641</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.25175615421521</v>
+        <v>16.76201701564806</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.25175615421521</v>
+        <v>24.52824782634055</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.25175615421521</v>
+        <v>30.03266447507243</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.25175615421521</v>
+        <v>30.31587627967823</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.25175615421521</v>
+        <v>37.83219583645435</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.25175615421521</v>
+        <v>42.39075556575491</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.25175615421521</v>
+        <v>11.47449930891101</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.25175615421521</v>
+        <v>30.34590369594795</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.25175615421521</v>
+        <v>38.48718691442419</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.25175615421521</v>
+        <v>3.216481014857401</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.25175615421521</v>
+        <v>35.48861011366338</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.25175615421521</v>
+        <v>43.49724176104754</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.25175615421521</v>
+        <v>12.42468824610497</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.25175615421521</v>
+        <v>26.93366190000878</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.25175615421521</v>
+        <v>33.61151065757857</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.25175615421521</v>
+        <v>25.38383256103733</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.25175615421521</v>
+        <v>33.15149752413648</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.25175615421521</v>
+        <v>38.65664243842635</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.25175615421521</v>
+        <v>38.9412482647169</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.25175615421521</v>
+        <v>46.45825250580193</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.25175615421521</v>
+        <v>51.01730283798243</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.25175615421521</v>
+        <v>20.09761967254254</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.25175615421521</v>
+        <v>38.97080741331487</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.25175615421521</v>
+        <v>47.11304334851203</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.25175615421521</v>
+        <v>-9.138704871461677</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.25175615421521</v>
+        <v>23.12984810738075</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.25175615421521</v>
+        <v>31.13583040369834</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.25175615421521</v>
+        <v>0.07632189540978374</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.25175615421521</v>
+        <v>14.5807419790112</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.25175615421521</v>
+        <v>21.25651395791746</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.25175615421521</v>
+        <v>13.02911954465477</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.25175615421521</v>
+        <v>20.79251945328686</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.25175615421521</v>
+        <v>26.29595056805245</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.25175615421521</v>
+        <v>26.5781856929818</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.25175615421521</v>
+        <v>34.09225292566176</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.25175615421521</v>
+        <v>38.65010784228772</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.25175615421521</v>
+        <v>7.737589559356103</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.25175615421521</v>
+        <v>26.6048074696815</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.25175615421521</v>
+        <v>34.74511746722268</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.25175615421521</v>
+        <v>-5.564572079350491</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.25175615421521</v>
+        <v>26.70819379002793</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.25175615421521</v>
+        <v>34.71648786158411</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.25175615421521</v>
+        <v>3.643432835638087</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.25175615421521</v>
+        <v>18.1518630857067</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.25175615421521</v>
+        <v>24.82938230593307</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.25175615421521</v>
+        <v>16.60088684394653</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.25175615421521</v>
+        <v>24.36772303808751</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.25175615421521</v>
+        <v>29.87256976209343</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.25175615421521</v>
+        <v>30.15555856282761</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.25175615421521</v>
+        <v>37.67254685488384</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.25175615421521</v>
+        <v>42.23163660585518</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.25175615421521</v>
+        <v>11.31327105321517</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.25175615421521</v>
+        <v>30.18594462325685</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.25175615421521</v>
+        <v>38.32785555247809</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.25175615421521</v>
+        <v>3.05274506082511</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.25175615421521</v>
+        <v>35.32702280193254</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.25175615421521</v>
+        <v>43.33623383216419</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.25175615421521</v>
+        <v>12.26130190713317</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.25175615421521</v>
+        <v>26.77131525387343</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.25175615421521</v>
+        <v>33.44967649798749</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.25175615421521</v>
+        <v>25.22115538268903</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.25175615421521</v>
+        <v>32.98942573659618</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.25175615421521</v>
+        <v>38.49500082093717</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.25175615421521</v>
+        <v>38.77938373805826</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.25175615421521</v>
+        <v>46.29705675258364</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.25175615421521</v>
+        <v>50.85663716248526</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.25175615421521</v>
+        <v>19.93484457201597</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.25175615421521</v>
+        <v>38.80930151935805</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.25175615421521</v>
+        <v>46.95216528778118</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.25175615421521</v>
+        <v>5.690162650841522</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.25175615421521</v>
+        <v>37.95897470737437</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.25175615421521</v>
+        <v>45.96440089165079</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.25175615421521</v>
+        <v>14.90676496305522</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.25175615421521</v>
+        <v>29.41206630383621</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.25175615421521</v>
+        <v>36.08734866508538</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.25175615421521</v>
+        <v>27.8600861470671</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.25175615421521</v>
+        <v>35.62445755368648</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.25175615421521</v>
+        <v>41.12747555879908</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.25175615421521</v>
+        <v>41.40950180523665</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.25175615421521</v>
+        <v>48.92372408943182</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.25175615421521</v>
+        <v>53.48103817901139</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.25175615421521</v>
+        <v>22.56789049095695</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.25175615421521</v>
+        <v>41.43598858853428</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.25175615421521</v>
+        <v>49.5757472417126</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.25175615421521</v>
+        <v>9.262594902857209</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.25175615421521</v>
+        <v>41.53561977083447</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.25175615421521</v>
+        <v>49.54335748954437</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.25175615421521</v>
+        <v>18.47217544736983</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.25175615421521</v>
+        <v>32.98148688160571</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.25175615421521</v>
+        <v>39.65851624270723</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.25175615421521</v>
+        <v>31.43015292932883</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.25175615421521</v>
+        <v>39.19796056102151</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.25175615421521</v>
+        <v>44.7023939597528</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.25175615421521</v>
+        <v>44.98517390861488</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.25175615421521</v>
+        <v>52.50231714893956</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.25175615421521</v>
+        <v>57.06086593132394</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.25175615421521</v>
+        <v>26.14187141901592</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.25175615421521</v>
+        <v>45.01542505937513</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.25175615421521</v>
+        <v>53.15678438791232</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.25175615421521</v>
+        <v>17.88050970739115</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.25175615421521</v>
+        <v>50.15504638532783</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.25175615421521</v>
+        <v>58.16370101147717</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.25175615421521</v>
+        <v>27.09064215722329</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.25175615421521</v>
+        <v>41.60153662973911</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.25175615421521</v>
+        <v>48.27940799090671</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.25175615421521</v>
+        <v>40.05101906007493</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.25175615421521</v>
+        <v>47.8202607994693</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.25175615421521</v>
+        <v>53.32542254542587</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.25175615421521</v>
+        <v>53.60959657101281</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.25175615421521</v>
+        <v>61.12742448404568</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.25175615421521</v>
+        <v>65.68646389848081</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.25175615421521</v>
+        <v>34.76404244428758</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.25175615421521</v>
+        <v>53.63937942373476</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.25175615421521</v>
+        <v>61.78169154948588</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.25175615421521</v>
+        <v>-14.00362102366049</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.25175615421521</v>
+        <v>18.26221836082569</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.25175615421521</v>
+        <v>26.26781840118016</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.25175615421521</v>
+        <v>-4.789889646309042</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.25175615421521</v>
+        <v>9.713080692817321</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.25175615421521</v>
+        <v>16.38851453392541</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.25175615421521</v>
+        <v>8.161918469410431</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.25175615421521</v>
+        <v>15.92438426781958</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.25175615421521</v>
+        <v>21.42753974290789</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.25175615421521</v>
+        <v>21.70992996531171</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.25175615421521</v>
+        <v>29.22314430316711</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.25175615421521</v>
+        <v>33.78057747820261</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.25175615421521</v>
+        <v>2.870384168188899</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.25175615421521</v>
+        <v>21.73596234601731</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.25175615421521</v>
+        <v>29.87575957410112</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.25175615421521</v>
+        <v>-10.43150848829865</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.25175615421521</v>
+        <v>21.83854355793934</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.25175615421521</v>
+        <v>29.84645537500122</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.25175615421521</v>
+        <v>-1.224798413121938</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.25175615421521</v>
+        <v>13.28218184469332</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.25175615421521</v>
+        <v>19.95936296689555</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.25175615421521</v>
+        <v>11.73166574226772</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.25175615421521</v>
+        <v>19.4975676072307</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.25175615421521</v>
+        <v>25.00213873593858</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.25175615421521</v>
+        <v>25.28528249309189</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.25175615421521</v>
+        <v>32.80141767457504</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.25175615421521</v>
+        <v>37.36008565290816</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.25175615421521</v>
+        <v>6.444045479545444</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.25175615421521</v>
+        <v>25.31507895732121</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.25175615421521</v>
+        <v>33.45647720636972</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.25175615421521</v>
+        <v>-1.812784682030077</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.25175615421521</v>
+        <v>30.45877928492049</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.25175615421521</v>
+        <v>38.46760788496518</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.25175615421521</v>
+        <v>7.394477392303848</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.25175615421521</v>
+        <v>21.90304079337508</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.25175615421521</v>
+        <v>28.58106378988051</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.25175615421521</v>
+        <v>20.35334092129104</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.25175615421521</v>
+        <v>28.12067698882046</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.25175615421521</v>
+        <v>33.62597635169637</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.25175615421521</v>
+        <v>33.9105140780235</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.25175615421521</v>
+        <v>41.42733396844456</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.25175615421521</v>
+        <v>45.98649255092467</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.25175615421521</v>
+        <v>15.06702549827249</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.25175615421521</v>
+        <v>33.93984237659807</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.25175615421521</v>
+        <v>42.08219330244398</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.25175615421521</v>
+        <v>-3.312008697558021</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.25175615421521</v>
+        <v>28.95594465045584</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.25175615421521</v>
+        <v>36.96121978885125</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.25175615421521</v>
+        <v>5.90265377788554</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.25175615421521</v>
+        <v>20.40709245999309</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.25175615421521</v>
+        <v>27.08219399327864</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.25175615421521</v>
+        <v>18.85549020729942</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.25175615421521</v>
+        <v>26.6190836383325</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.25175615421521</v>
+        <v>32.12193707256355</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.25175615421521</v>
+        <v>32.40420951696247</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.25175615421521</v>
+        <v>39.91817014976183</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.25175615421521</v>
+        <v>44.47543016668222</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.25175615421521</v>
+        <v>13.56315755283853</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.25175615421521</v>
+        <v>32.43037187013837</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.25175615421521</v>
+        <v>40.56985972431593</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.25175615421521</v>
+        <v>0.2641352031171991</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.25175615421521</v>
+        <v>32.53630143970266</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.25175615421521</v>
+        <v>40.54388820354219</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.25175615421521</v>
+        <v>9.47177626815877</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.25175615421521</v>
+        <v>23.98022505787636</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.25175615421521</v>
+        <v>30.65707370226365</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.25175615421521</v>
+        <v>22.42926912346692</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.25175615421521</v>
+        <v>30.19629877661813</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.25175615421521</v>
+        <v>35.7005677071099</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.25175615421521</v>
+        <v>35.98359374596495</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.25175615421521</v>
+        <v>43.50047532270397</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.25175615421521</v>
+        <v>48.05897006054507</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.25175615421521</v>
+        <v>17.14085045923897</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.25175615421521</v>
+        <v>36.01352031364475</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.25175615421521</v>
+        <v>44.15460900546289</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.25175615421521</v>
+        <v>8.882522518823144</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.25175615421521</v>
+        <v>41.15620066494349</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.25175615421521</v>
+        <v>49.16470430208934</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.25175615421521</v>
+        <v>18.09071545864636</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.25175615421521</v>
+        <v>32.60074740760634</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.25175615421521</v>
+        <v>39.27843799965532</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.25175615421521</v>
+        <v>31.05060778692583</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.25175615421521</v>
+        <v>38.81907166308846</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.25175615421521</v>
+        <v>44.32406888868965</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.25175615421521</v>
+        <v>44.60848889118162</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.25175615421521</v>
+        <v>52.12605516393622</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.25175615421521</v>
+        <v>56.68504054184265</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.25175615421521</v>
+        <v>25.76349395109317</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.25175615421521</v>
+        <v>44.63794725495435</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.25175615421521</v>
+        <v>52.77998868671678</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.25175615421521</v>
+        <v>-12.64343538637892</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.25175615421521</v>
+        <v>19.62362256807679</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.25175615421521</v>
+        <v>27.62900938985987</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.25175615421521</v>
+        <v>-3.429385725817419</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.25175615421521</v>
+        <v>11.07418889633558</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.25175615421521</v>
+        <v>17.74939060267135</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.25175615421521</v>
+        <v>9.522943269047083</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.25175615421521</v>
+        <v>17.28577210383215</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.25175615421521</v>
+        <v>22.78871114799764</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.25175615421521</v>
+        <v>23.07131784232146</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.25175615421521</v>
+        <v>30.58485122695853</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.25175615421521</v>
+        <v>35.1421485366919</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.25175615421521</v>
+        <v>4.231128155383395</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.25175615421521</v>
+        <v>23.09744121004879</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.25175615421521</v>
+        <v>31.23705448294489</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.25175615421521</v>
+        <v>-9.07178565502992</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.25175615421521</v>
+        <v>23.19948510643641</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.25175615421521</v>
+        <v>31.20718362000147</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.25175615421521</v>
+        <v>0.1352423659427231</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.25175615421521</v>
+        <v>14.64282703181603</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.25175615421521</v>
+        <v>21.31977591410676</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.25175615421521</v>
+        <v>13.09222756230118</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.25175615421521</v>
+        <v>20.85849256752257</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.25175615421521</v>
+        <v>26.36284716619567</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.25175615421521</v>
+        <v>26.64620750386845</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.25175615421521</v>
+        <v>34.16266180338376</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.25175615421521</v>
+        <v>38.72119387387189</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.25175615421521</v>
+        <v>7.804326573434274</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.25175615421521</v>
+        <v>26.6760950910046</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.25175615421521</v>
+        <v>34.81730925928715</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.25175615421521</v>
+        <v>-0.4512275039703937</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.25175615421521</v>
+        <v>31.82155525520735</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.25175615421521</v>
+        <v>39.83017059517098</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.25175615421521</v>
+        <v>8.756352504451989</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.25175615421521</v>
+        <v>23.26552039857867</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.25175615421521</v>
+        <v>29.94331118898693</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.25175615421521</v>
+        <v>21.7157372721825</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.25175615421521</v>
+        <v>29.48343655716152</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.25175615421521</v>
+        <v>34.98851941751658</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.25175615421521</v>
+        <v>35.27327366774963</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.25175615421521</v>
+        <v>42.7904126816696</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.25175615421521</v>
+        <v>47.34943537692603</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.25175615421521</v>
+        <v>16.42914099431228</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.25175615421521</v>
+        <v>35.30269302106498</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.25175615421521</v>
+        <v>43.44485989833387</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.25175615421521</v>
+        <v>-17.57241069988519</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.25175615421521</v>
+        <v>14.6933171014044</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.25175615421521</v>
+        <v>22.69837005261157</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.25175615421521</v>
+        <v>-8.359246364340073</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.25175615421521</v>
+        <v>6.143551935369679</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.25175615421521</v>
+        <v>12.81845714005075</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.25175615421521</v>
+        <v>4.592355904184352</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.25175615421521</v>
+        <v>12.35465179370234</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.25175615421521</v>
+        <v>17.85733969807423</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.25175615421521</v>
+        <v>18.14005514318509</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.25175615421521</v>
+        <v>25.6533001797122</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.25175615421521</v>
+        <v>30.21046259592557</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.25175615421521</v>
+        <v>-0.6991547966249883</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.25175615421521</v>
+        <v>18.16622408349698</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.25175615421521</v>
+        <v>26.30547814054577</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.25175615421521</v>
+        <v>-13.99977070018432</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.25175615421521</v>
+        <v>18.27016977051093</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.25175615421521</v>
+        <v>26.27753436577992</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.25175615421521</v>
+        <v>-4.793627685749961</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.25175615421521</v>
+        <v>9.713180512261339</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.25175615421521</v>
+        <v>16.38983286940273</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.25175615421521</v>
+        <v>8.162630670722898</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.25175615421521</v>
+        <v>15.92836260141254</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.25175615421521</v>
+        <v>21.43246604531927</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.25175615421521</v>
+        <v>21.71593507993983</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.25175615421521</v>
+        <v>29.23210093911162</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.25175615421521</v>
+        <v>33.79049808539124</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.25175615421521</v>
+        <v>2.875033905081487</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.25175615421521</v>
+        <v>21.74586805475231</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.25175615421521</v>
+        <v>29.88672299478352</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.25175615421521</v>
+        <v>-5.379356528175926</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.25175615421521</v>
+        <v>26.89209590847812</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.25175615421521</v>
+        <v>34.90037730303739</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.25175615421521</v>
+        <v>3.827338444843996</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.25175615421521</v>
+        <v>18.33572984329506</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.25175615421521</v>
+        <v>25.01322407410938</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.25175615421521</v>
+        <v>16.78599630992763</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.25175615421521</v>
+        <v>24.55316249707149</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.25175615421521</v>
+        <v>30.05799416990848</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.25175615421521</v>
+        <v>30.34285703409838</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.25175615421521</v>
+        <v>37.85970759389939</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.25175615421521</v>
+        <v>42.41859535216948</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.25175615421521</v>
+        <v>11.49970419249208</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.25175615421521</v>
+        <v>30.37232181394287</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.25175615421521</v>
+        <v>38.51412942389421</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.25175615421521</v>
+        <v>-6.963219671276683</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.25175615421521</v>
+        <v>25.30515536752122</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.25175615421521</v>
+        <v>33.3112827391686</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.25175615421521</v>
+        <v>2.25172606208158</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.25175615421521</v>
+        <v>16.75589098931638</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.25175615421521</v>
+        <v>23.43179145413259</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.25175615421521</v>
+        <v>15.20468913969622</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.25175615421521</v>
+        <v>22.96783838782866</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.25175615421521</v>
+        <v>28.47137919166433</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.25175615421521</v>
+        <v>28.75354595474638</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.25175615421521</v>
+        <v>36.26742627040718</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.25175615421521</v>
+        <v>40.82531915297815</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.25175615421521</v>
+        <v>9.913098936405923</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.25175615421521</v>
+        <v>28.78006393184531</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.25175615421521</v>
+        <v>36.92051974554882</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.25175615421521</v>
+        <v>-3.39092629528708</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.25175615421521</v>
+        <v>28.88166163772663</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.25175615421521</v>
+        <v>36.89010082978901</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.25175615421521</v>
+        <v>5.816997446398965</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.25175615421521</v>
+        <v>20.32517255278659</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.25175615421521</v>
+        <v>27.00282030190382</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.25175615421521</v>
+        <v>18.77461679336451</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.25175615421521</v>
+        <v>26.54120234072465</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.25175615421521</v>
+        <v>32.04615879125546</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.25175615421521</v>
+        <v>32.32907923761112</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.25175615421521</v>
+        <v>39.84588061872179</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.25175615421521</v>
+        <v>44.40500836342684</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.25175615421521</v>
+        <v>13.48694087493796</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.25175615421521</v>
+        <v>32.3593615386338</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.25175615421521</v>
+        <v>40.50141833456345</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.25175615421521</v>
+        <v>5.227142813652755</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.25175615421521</v>
+        <v>37.5012426646451</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.25175615421521</v>
+        <v>45.51059878313773</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.25175615421521</v>
+        <v>14.4356185338174</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.25175615421521</v>
+        <v>28.94537677090269</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.25175615421521</v>
+        <v>35.62386651783603</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.25175615421521</v>
+        <v>27.39563738932505</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.25175615421521</v>
+        <v>35.16365712420551</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.25175615421521</v>
+        <v>40.66934191342724</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.25175615421521</v>
+        <v>40.95365648910282</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.25175615421521</v>
+        <v>48.47114260438237</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.25175615421521</v>
+        <v>53.0307609961579</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.25175615421521</v>
+        <v>22.10926643129536</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.25175615421521</v>
+        <v>40.98347049952368</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.25175615421521</v>
+        <v>49.12648011317477</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.25175615421521</v>
+        <v>-4.314330758855171</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.25175615421521</v>
+        <v>27.9531613464878</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.25175615421521</v>
+        <v>35.9587121977158</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.25175615421521</v>
+        <v>4.90032410847558</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.25175615421521</v>
+        <v>19.40441698649212</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.25175615421521</v>
+        <v>26.07977893761264</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.25175615421521</v>
+        <v>17.85299556712967</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.25175615421521</v>
+        <v>25.6163101349044</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.25175615421521</v>
+        <v>31.11939234776874</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.25175615421521</v>
+        <v>31.40159308009148</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.25175615421521</v>
+        <v>38.91533783373435</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.25175615421521</v>
+        <v>43.47274097065232</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.25175615421521</v>
+        <v>12.56084419939574</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.25175615421521</v>
+        <v>31.4277238310835</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.25175615421521</v>
+        <v>39.56749317097202</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.25175615421521</v>
+        <v>-0.7431549197957921</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.25175615421521</v>
+        <v>31.52854995914227</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.25175615421521</v>
+        <v>39.53641251896553</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.25175615421521</v>
+        <v>8.464478341178697</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.25175615421521</v>
+        <v>22.97258122395586</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.25175615421521</v>
+        <v>29.64969037417355</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.25175615421521</v>
+        <v>21.42180598896638</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.25175615421521</v>
+        <v>29.18855669036028</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.25175615421521</v>
+        <v>34.69305447968437</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.25175615421521</v>
+        <v>34.97600888555561</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.25175615421521</v>
+        <v>42.49267453790807</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.25175615421521</v>
+        <v>47.05131243787556</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.25175615421521</v>
+        <v>16.13356878557746</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.25175615421521</v>
+        <v>35.00590384277117</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.25175615421521</v>
+        <v>43.14727411038151</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.25175615421521</v>
+        <v>7.875638193104429</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.25175615421521</v>
+        <v>40.14885501554905</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.25175615421521</v>
+        <v>48.15763441386533</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.25175615421521</v>
+        <v>17.0838234092308</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.25175615421521</v>
+        <v>31.59350947261779</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.25175615421521</v>
+        <v>38.27146054250633</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.25175615421521</v>
+        <v>30.04355052875311</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.25175615421521</v>
+        <v>37.81173546894873</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.25175615421521</v>
+        <v>43.31696153044296</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.25175615421521</v>
+        <v>43.60130989650255</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.25175615421521</v>
+        <v>51.11866026846709</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.25175615421521</v>
+        <v>55.6777887974849</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.25175615421521</v>
+        <v>24.75661814993949</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.25175615421521</v>
+        <v>43.63073666873898</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.25175615421521</v>
+        <v>51.77305965323907</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.25175615421521</v>
+        <v>1.610258859446922</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.25175615421521</v>
+        <v>33.88004099513417</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.25175615421521</v>
+        <v>41.8862486855788</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.25175615421521</v>
+        <v>10.82649166464576</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.25175615421521</v>
+        <v>25.33178750471537</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.25175615421521</v>
+        <v>32.00776420009068</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.25175615421521</v>
+        <v>23.780093949279</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.25175615421521</v>
+        <v>31.54417483365611</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.25175615421521</v>
+        <v>37.04778060325938</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.25175615421521</v>
+        <v>37.32965375069292</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.25175615421521</v>
+        <v>44.84402600702659</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.25175615421521</v>
+        <v>49.40197526802498</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.25175615421521</v>
+        <v>18.48810494168875</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.25175615421521</v>
+        <v>37.35632474573705</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.25175615421521</v>
+        <v>45.49688807465414</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.25175615421521</v>
+        <v>5.183450629307423</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.25175615421521</v>
+        <v>37.45744574025431</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.25175615421521</v>
+        <v>45.46596521640807</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.25175615421521</v>
+        <v>14.39266135619967</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.25175615421521</v>
+        <v>28.90196746130263</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.25175615421521</v>
+        <v>35.5796913903558</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.25175615421521</v>
+        <v>27.35092006415058</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.25175615421521</v>
+        <v>35.11843732385235</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.25175615421521</v>
+        <v>40.62345869127872</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.25175615421521</v>
+        <v>40.90608556844742</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.25175615421521</v>
+        <v>48.42337894946248</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.25175615421521</v>
+        <v>52.98256305386209</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.25175615421521</v>
+        <v>22.06284538961037</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.25175615421521</v>
+        <v>40.93652098486174</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.25175615421521</v>
+        <v>49.0786852240578</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.25175615421521</v>
+        <v>13.80053479426859</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.25175615421521</v>
+        <v>46.07604176927108</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.25175615421521</v>
+        <v>54.08547821588805</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.25175615421521</v>
+        <v>23.01029746102866</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.25175615421521</v>
+        <v>37.52118665071369</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.25175615421521</v>
+        <v>44.19975262374074</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.25175615421521</v>
+        <v>35.97095565366666</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.25175615421521</v>
+        <v>43.73990706063395</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.25175615421521</v>
+        <v>49.24565680889631</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.25175615421521</v>
+        <v>49.52967788634404</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.25175615421521</v>
+        <v>57.04765599216065</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.25175615421521</v>
+        <v>61.60733075220272</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.25175615421521</v>
+        <v>30.68418603014921</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.25175615421521</v>
+        <v>49.55964499819807</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.25175615421521</v>
+        <v>57.70276209864797</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.25175615421521</v>
+        <v>-2.300398924070386</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.25175615421521</v>
+        <v>29.96761885771897</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.25175615421521</v>
+        <v>37.9735826201996</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.25175615421521</v>
+        <v>6.914970688782056</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.25175615421521</v>
+        <v>21.41912281860228</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.25175615421521</v>
+        <v>28.09489777229654</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.25175615421521</v>
+        <v>19.86770551953028</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.25175615421521</v>
+        <v>27.63094575825593</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.25175615421521</v>
+        <v>33.13438457930371</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.25175615421521</v>
+        <v>33.41625396666355</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.25175615421521</v>
+        <v>40.93013692190512</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.25175615421521</v>
+        <v>45.48800182870203</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.25175615421521</v>
+        <v>14.57602507608927</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.25175615421521</v>
+        <v>33.4428812251892</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.25175615421521</v>
+        <v>41.58321035384446</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.25175615421521</v>
+        <v>1.273400906103312</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.25175615421521</v>
+        <v>33.54563149696738</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.25175615421521</v>
+        <v>41.55390701042696</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.25175615421521</v>
+        <v>10.48174878195501</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.25175615421521</v>
+        <v>24.98991101143698</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.25175615421521</v>
+        <v>31.6674331919672</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.25175615421521</v>
+        <v>23.43913981536885</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.25175615421521</v>
+        <v>31.20581628521241</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.25175615421521</v>
+        <v>36.7106707054398</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.25175615421521</v>
+        <v>36.99329375519297</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.25175615421521</v>
+        <v>44.51009772135941</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.25175615421521</v>
+        <v>49.06919745336048</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.25175615421521</v>
+        <v>18.15137351189522</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.25175615421521</v>
+        <v>37.02368522845526</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.25175615421521</v>
+        <v>45.16561527165057</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.25175615421521</v>
+        <v>9.890015921567588</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.25175615421521</v>
+        <v>42.1637583406443</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.25175615421521</v>
+        <v>50.17295078857145</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.25175615421521</v>
+        <v>19.09891571253601</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.25175615421521</v>
+        <v>33.60866098622724</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.25175615421521</v>
+        <v>40.28702516905306</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.25175615421521</v>
+        <v>32.05870614915644</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.25175615421521</v>
+        <v>39.82681672968382</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.25175615421521</v>
+        <v>45.33239949097648</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.25175615421521</v>
+        <v>45.616416678234</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.25175615421521</v>
+        <v>53.13390535470065</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.25175615421521</v>
+        <v>57.69349573224562</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.25175615421521</v>
+        <v>26.7722448394073</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.25175615421521</v>
+        <v>45.64633987156852</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.25175615421521</v>
+        <v>53.7892227377865</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.25175615421521</v>
+        <v>-4.289132019420585</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.25175615421521</v>
+        <v>27.98007676905976</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.25175615421521</v>
+        <v>35.98612146464776</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.25175615421521</v>
+        <v>4.926105707974976</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.25175615421521</v>
+        <v>19.4310405108732</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.25175615421521</v>
+        <v>26.10684862649619</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.25175615421521</v>
+        <v>17.87949861008504</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.25175615421521</v>
+        <v>25.64331036998814</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.25175615421521</v>
+        <v>31.14677119793244</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.25175615421521</v>
+        <v>31.42899416264193</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.25175615421521</v>
+        <v>38.9431831631069</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.25175615421521</v>
+        <v>43.50089730139856</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.25175615421521</v>
+        <v>12.58735642705627</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.25175615421521</v>
+        <v>31.45528214596342</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.25175615421521</v>
+        <v>39.59558566437416</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.25175615421521</v>
+        <v>-0.7167598272423348</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.25175615421521</v>
+        <v>31.55666191948907</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.25175615421521</v>
+        <v>39.56501842000838</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.25175615421521</v>
+        <v>8.491455916207734</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.25175615421521</v>
+        <v>23.00040092137382</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.25175615421521</v>
+        <v>29.67795630350914</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.25175615421521</v>
+        <v>21.44950524133932</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.25175615421521</v>
+        <v>29.21675331105299</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.25175615421521</v>
+        <v>34.72162976810804</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.25175615421521</v>
+        <v>35.00460642494337</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.25175615421521</v>
+        <v>42.52171647941017</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.25175615421521</v>
+        <v>47.08066544563697</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.25175615421521</v>
+        <v>16.16127738419205</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.25175615421521</v>
+        <v>35.03465879087749</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.25175615421521</v>
+        <v>43.17656329546454</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.25175615421521</v>
+        <v>7.901107678987465</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.25175615421521</v>
+        <v>40.17604137195959</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.25175615421521</v>
+        <v>48.18531479199779</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.25175615421521</v>
+        <v>17.10987538144703</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.25175615421521</v>
+        <v>31.62040356791962</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.25175615421521</v>
+        <v>38.29880094732763</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.25175615421521</v>
+        <v>30.07032421089556</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.25175615421521</v>
+        <v>37.83900651903772</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.25175615421521</v>
+        <v>43.34461131615009</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.25175615421521</v>
+        <v>43.62898207500174</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.25175615421521</v>
+        <v>51.14677687370484</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.25175615421521</v>
+        <v>55.70621649879646</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.25175615421521</v>
+        <v>24.78340134136814</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.25175615421521</v>
+        <v>43.65856622022667</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.25175615421521</v>
+        <v>51.8014235250126</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.25175615421521</v>
+        <v>-9.787774278042583</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.25175615421521</v>
+        <v>22.47881527210117</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.25175615421521</v>
+        <v>30.48458742398847</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.25175615421521</v>
+        <v>-0.5733305523469099</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.25175615421521</v>
+        <v>13.92998600165796</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.25175615421521</v>
+        <v>20.60558486144529</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.25175615421521</v>
+        <v>12.37879459959375</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.25175615421521</v>
+        <v>20.14145950770554</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.25175615421521</v>
+        <v>25.64475114129149</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.25175615421521</v>
+        <v>25.9270010297225</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.25175615421521</v>
+        <v>33.44042700312192</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.25175615421521</v>
+        <v>37.99810062297646</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.25175615421521</v>
+        <v>7.087398498861681</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.25175615421521</v>
+        <v>25.9532939396524</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.25175615421521</v>
+        <v>34.0933667579878</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.25175615421521</v>
+        <v>-6.213999365535791</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.25175615421521</v>
+        <v>26.05680294231941</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.25175615421521</v>
+        <v>34.06488686697602</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.25175615421521</v>
+        <v>2.993422897626566</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.25175615421521</v>
+        <v>17.50074950376651</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.25175615421521</v>
+        <v>24.17809562530098</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.25175615421521</v>
+        <v>15.95020416387964</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.25175615421521</v>
+        <v>23.71630526569762</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.25175615421521</v>
+        <v>29.2210125313779</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.25175615421521</v>
+        <v>29.50401596558932</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.25175615421521</v>
+        <v>37.02036287675795</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.25175615421521</v>
+        <v>41.57927134628718</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.25175615421521</v>
+        <v>10.66272209214113</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.25175615421521</v>
+        <v>29.53407300128193</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.25175615421521</v>
+        <v>37.67574680876393</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.25175615421521</v>
+        <v>2.403181272719131</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.25175615421521</v>
+        <v>34.67549543588992</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.25175615421521</v>
+        <v>42.684496216744</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.25175615421521</v>
+        <v>11.61115542424542</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.25175615421521</v>
+        <v>26.12006510107832</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.25175615421521</v>
+        <v>32.79825315371291</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.25175615421521</v>
+        <v>24.57033604938007</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.25175615421521</v>
+        <v>32.33787128583716</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.25175615421521</v>
+        <v>37.84330683156835</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.25175615421521</v>
+        <v>38.12770434052103</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.25175615421521</v>
+        <v>45.64473595345574</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.25175615421521</v>
+        <v>50.20413502938205</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.25175615421521</v>
+        <v>19.28415890577204</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.25175615421521</v>
+        <v>38.15729314801475</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.25175615421521</v>
+        <v>46.29991970218506</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.25175615421521</v>
+        <v>-3.569145728450657</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.25175615421521</v>
+        <v>28.69864297582509</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.25175615421521</v>
+        <v>36.70462427822039</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.25175615421521</v>
+        <v>5.646099599255614</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.25175615421521</v>
+        <v>20.1500825105995</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.25175615421521</v>
+        <v>26.82587463266005</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.25175615421521</v>
+        <v>18.59872282147713</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.25175615421521</v>
+        <v>26.36182915731077</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.25175615421521</v>
+        <v>31.86528355689605</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.25175615421521</v>
+        <v>32.14719185990312</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.25175615421521</v>
+        <v>39.66099260636391</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.25175615421521</v>
+        <v>44.21887024384053</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.25175615421521</v>
+        <v>13.30714138801303</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.25175615421521</v>
+        <v>32.17380574673151</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.25175615421521</v>
+        <v>40.31414734961103</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.25175615421521</v>
+        <v>0.004193469902894265</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.25175615421521</v>
+        <v>32.27619496257065</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.25175615421521</v>
+        <v>40.28448803392413</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.25175615421521</v>
+        <v>9.212417073455264</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.25175615421521</v>
+        <v>23.72041006742878</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.25175615421521</v>
+        <v>30.39794943617309</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.25175615421521</v>
+        <v>22.16969645488242</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.25175615421521</v>
+        <v>29.93623900815575</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.25175615421521</v>
+        <v>35.44110902511974</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.25175615421521</v>
+        <v>35.7237709841124</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.25175615421521</v>
+        <v>43.24049273319573</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.25175615421521</v>
+        <v>47.79960520709377</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.25175615421521</v>
+        <v>16.88202916962992</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.25175615421521</v>
+        <v>35.75414907332023</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.25175615421521</v>
+        <v>43.89609161190375</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.25175615421521</v>
+        <v>8.620954637122473</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.25175615421521</v>
+        <v>40.89446796305193</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.25175615421521</v>
+        <v>48.90367795998744</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.25175615421521</v>
+        <v>17.8297301709916</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.25175615421521</v>
+        <v>32.33930621111832</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.25175615421521</v>
+        <v>39.0176875743368</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.25175615421521</v>
+        <v>30.78940895314573</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.25175615421521</v>
+        <v>38.55738561796814</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.25175615421521</v>
+        <v>44.06298396956182</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.25175615421521</v>
+        <v>44.34704006381238</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.25175615421521</v>
+        <v>51.86444652413567</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.25175615421521</v>
+        <v>56.42404963990722</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.25175615421521</v>
+        <v>25.50304665610982</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.25175615421521</v>
+        <v>44.37694987383244</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.25175615421521</v>
+        <v>52.51984522955862</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.25175615421521</v>
+        <v>0.2568844255648273</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.25175615421521</v>
+        <v>32.52474634404367</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.25175615421521</v>
+        <v>40.53040877690406</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.25175615421521</v>
+        <v>9.472638537430917</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>28.25175615421521</v>
+        <v>23.97690251142907</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>28.25175615421521</v>
+        <v>30.65239131143547</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>28.25175615421521</v>
+        <v>22.42546516673766</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>28.25175615421521</v>
+        <v>30.18888381487121</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>28.25175615421521</v>
+        <v>35.69207368799956</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>28.25175615421521</v>
+        <v>35.97407254019557</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>28.25175615421521</v>
+        <v>43.48789824772458</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>28.25175615421521</v>
+        <v>48.04541021401777</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>28.25175615421521</v>
+        <v>17.13351291882312</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>28.25175615421521</v>
+        <v>36.00048235027267</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>28.25175615421521</v>
+        <v>44.14051582660166</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>28.25175615421521</v>
+        <v>3.829820612067998</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>28.25175615421521</v>
+        <v>36.10189532355351</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>28.25175615421521</v>
+        <v>44.10986938421237</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.25175615421521</v>
+        <v>13.03855296945184</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>28.25175615421521</v>
+        <v>27.5468270090549</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>28.25175615421521</v>
+        <v>34.22406291536978</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>28.25175615421521</v>
+        <v>25.99603581757705</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>28.25175615421521</v>
+        <v>33.7628906633308</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>28.25175615421521</v>
+        <v>39.26749602928904</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>28.25175615421521</v>
+        <v>39.55024855452947</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>28.25175615421521</v>
+        <v>47.06699521047127</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>28.25175615421521</v>
+        <v>51.62574192292524</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>28.25175615421521</v>
+        <v>20.70799768926448</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>28.25175615421521</v>
+        <v>39.58042263798401</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>28.25175615421521</v>
+        <v>47.72205689359529</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>28.25175615421521</v>
+        <v>12.44728022932346</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.25175615421521</v>
+        <v>44.72086678722243</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.25175615421521</v>
+        <v>52.72975774528114</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>28.25175615421521</v>
+        <v>21.65656448199544</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>28.25175615421521</v>
+        <v>36.16642158907742</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>28.25175615421521</v>
+        <v>42.84449947462743</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>28.25175615421521</v>
+        <v>34.61644675107421</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>28.25175615421521</v>
+        <v>42.38473572909125</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.25175615421521</v>
+        <v>47.8900694201612</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>28.25175615421521</v>
+        <v>48.17421601570114</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.25175615421521</v>
+        <v>55.69164737340937</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>28.25175615421521</v>
+        <v>60.2508847263792</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>28.25175615421521</v>
+        <v>29.32971351968555</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>28.25175615421521</v>
+        <v>48.20392181990629</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>28.25175615421521</v>
+        <v>56.34650886687719</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>28.25175615421521</v>
+        <v>-3.316492274785368</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.25175615421521</v>
+        <v>28.95264018174188</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>28.25175615421521</v>
+        <v>36.95867774165057</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>28.25175615421521</v>
+        <v>5.898812072704537</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>28.25175615421521</v>
+        <v>20.40375622539633</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>28.25175615421521</v>
+        <v>27.07956241360565</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>28.25175615421521</v>
+        <v>18.85218479874433</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>28.25175615421521</v>
+        <v>26.61603039619816</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>28.25175615421521</v>
+        <v>32.11949069287751</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.25175615421521</v>
+        <v>32.40166212059497</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>28.25175615421521</v>
+        <v>39.91584311365212</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>28.25175615421521</v>
+        <v>44.4735695174198</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>28.25175615421521</v>
+        <v>13.5600750006283</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>28.25175615421521</v>
+        <v>32.42798855625787</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>28.25175615421521</v>
+        <v>40.56829108203643</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>28.25175615421521</v>
+        <v>0.2560013109934616</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.25175615421521</v>
+        <v>32.52934670349335</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>28.25175615421521</v>
+        <v>40.53769605847534</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.25175615421521</v>
+        <v>9.464283698968153</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>28.25175615421521</v>
+        <v>23.9732380384963</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.25175615421521</v>
+        <v>30.6507914857959</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.25175615421521</v>
+        <v>22.42231283096643</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>28.25175615421521</v>
+        <v>30.18959472617697</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.25175615421521</v>
+        <v>35.69447064649304</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>28.25175615421521</v>
+        <v>35.97739576510954</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>28.25175615421521</v>
+        <v>43.49449780161827</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>28.25175615421521</v>
+        <v>48.0534590314705</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>28.25175615421521</v>
+        <v>17.13411735251415</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>28.25175615421521</v>
+        <v>36.00748658039398</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.25175615421521</v>
+        <v>44.14939008024574</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.25175615421521</v>
+        <v>8.87342917204986</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>28.25175615421521</v>
+        <v>41.1482864824313</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>28.25175615421521</v>
+        <v>49.1575527635135</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>28.25175615421521</v>
+        <v>18.08226349228104</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>28.25175615421521</v>
+        <v>32.5928009830255</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>28.25175615421521</v>
+        <v>39.27119643468935</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>28.25175615421521</v>
+        <v>31.04269209873924</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>28.25175615421521</v>
+        <v>38.81140820507718</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>28.25175615421521</v>
+        <v>44.3170124721366</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>28.25175615421521</v>
+        <v>44.60133169727768</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.25175615421521</v>
+        <v>52.11911846994436</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.25175615421521</v>
+        <v>56.67857035957203</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.25175615421521</v>
+        <v>25.75580161552337</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>28.25175615421521</v>
+        <v>44.63095428200526</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.25175615421521</v>
+        <v>52.77381059202681</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_4/out_of_sample/ligand/LOO_t-BuXPhos/results.xlsx
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-6.008399683420102</v>
+        <v>-6.008399683427719</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.25994971611347</v>
+        <v>26.25994971610984</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>34.26611982425251</v>
+        <v>34.26611982424296</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.206807389248148</v>
+        <v>3.206807389261336</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>17.71101674370683</v>
+        <v>17.71101674369728</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>24.38696318092192</v>
+        <v>24.38696318092737</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.15968292400358</v>
+        <v>16.15968292401688</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.92289338222778</v>
+        <v>23.92289338225438</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>29.42647581918182</v>
+        <v>29.42647581924106</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>29.70855789421315</v>
+        <v>29.70855789422668</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.22245447562872</v>
+        <v>37.22245447567635</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>41.7804021928716</v>
+        <v>41.78040219292003</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>10.86811674165286</v>
+        <v>10.86811674166878</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.7350987536474</v>
+        <v>29.73509875362989</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>37.87560218717734</v>
+        <v>37.87560218718519</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-2.434499974977179</v>
+        <v>-2.434499975019015</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>29.83806233049196</v>
+        <v>29.83806233047888</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>37.84654428175187</v>
+        <v>37.84654428176767</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.773685253470795</v>
+        <v>6.773685253534687</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.28190480702877</v>
+        <v>21.2819048070323</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>27.95959855206123</v>
+        <v>27.95959855204963</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.73121709232756</v>
+        <v>19.73121709230767</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>27.49786386979982</v>
+        <v>27.49786386977924</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>33.00286197524186</v>
+        <v>33.00286197525903</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>33.28569767258099</v>
+        <v>33.28569767256302</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>40.80251533258407</v>
+        <v>40.80251533260067</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>45.36169792893835</v>
+        <v>45.36169792901077</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14.44356512319435</v>
+        <v>14.44356512321368</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.31600282840358</v>
+        <v>33.31600282839243</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>41.45810726233341</v>
+        <v>41.45810726235614</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6.182780902303271</v>
+        <v>6.182780902306909</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.45685508905805</v>
+        <v>38.45685508909488</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.46625397057513</v>
+        <v>46.46625397060128</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.39151809265169</v>
+        <v>15.39151809268261</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>29.90132074049867</v>
+        <v>29.90132074046183</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.57985648792882</v>
+        <v>36.57985648796826</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.35144938212553</v>
+        <v>28.35144938213826</v>
       </c>
     </row>
     <row r="39">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>41.6252567628621</v>
+        <v>41.62525676288393</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>41.90948662749323</v>
+        <v>41.90948662753143</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>49.4269890162769</v>
+        <v>49.42698901631532</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53.986662256019</v>
+        <v>53.98666225605901</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>23.0651024349166</v>
+        <v>23.06510243494889</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>41.93932350294093</v>
+        <v>41.93932350298731</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50.08238076190397</v>
+        <v>50.08238076191306</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2.258448686955411</v>
+        <v>-2.258448686952228</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>30.01071194060236</v>
+        <v>30.01071194063339</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>38.01643594816547</v>
+        <v>38.01643594814944</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6.957271641811268</v>
+        <v>6.957271641775797</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>21.46238442509601</v>
+        <v>21.46238442504485</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.13789595309728</v>
+        <v>28.13789595308602</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>19.91056519601076</v>
+        <v>19.910565196002</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>27.67460531984462</v>
+        <v>27.67460531986861</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>33.17780978809898</v>
+        <v>33.1778097880817</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.45998728239564</v>
+        <v>33.45998728237358</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>40.97419671230372</v>
+        <v>40.97419671226279</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>45.53169108880157</v>
+        <v>45.53169108877611</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>14.61819678841422</v>
+        <v>14.61819678837238</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>33.48625553765847</v>
+        <v>33.48625553766211</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>41.62624514354908</v>
+        <v>41.62624514350838</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1.313288337128562</v>
+        <v>1.313288337082746</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>33.58666189207334</v>
+        <v>33.58666189208187</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>41.59469759641555</v>
+        <v>41.59469759639543</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>10.52198674490986</v>
+        <v>10.52198674489531</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>25.03110969666758</v>
+        <v>25.03110969667986</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>31.70836838171302</v>
+        <v>31.70836838167983</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>23.47993671294349</v>
+        <v>23.47993671290075</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>31.24741311593126</v>
+        <v>31.24741311593308</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.75203311587071</v>
+        <v>36.75203311587696</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37.03496434139216</v>
+        <v>37.03496434139478</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>44.5520947849728</v>
+        <v>44.55209478497667</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>49.11082392270222</v>
+        <v>49.11082392268403</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>18.19148260175833</v>
+        <v>18.19148260172775</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>37.06499700057642</v>
+        <v>37.06499700054038</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>45.20658746405157</v>
+        <v>45.20658746401292</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>9.932355704893858</v>
+        <v>9.932355704860662</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>42.20724120546648</v>
+        <v>42.20724120544306</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>50.2161938073975</v>
+        <v>50.21619380739079</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>19.14160607641505</v>
+        <v>19.14160607644825</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.652312214602</v>
+        <v>33.65231221458017</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.33041288050534</v>
+        <v>40.33041288051626</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.10195559217433</v>
+        <v>32.10195559215341</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>39.8708662394375</v>
+        <v>39.87086623944432</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>45.37621456660823</v>
+        <v>45.37621456658277</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>45.66053982953789</v>
+        <v>45.66053982956631</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>53.1783549949882</v>
+        <v>53.17835499503561</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>57.73757477979981</v>
+        <v>57.73757477976354</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.8148063615284</v>
+        <v>26.81480636153068</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>45.69010424647589</v>
+        <v>45.69010424645224</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>53.83264748982909</v>
+        <v>53.83264748981306</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-3.196471877558942</v>
+        <v>-3.196471877540638</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>29.07260173230437</v>
+        <v>29.07260173232017</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>37.07821171394206</v>
+        <v>37.07821171390921</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.018915341392436</v>
+        <v>6.01891534140892</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>20.52392136722718</v>
+        <v>20.52392136721581</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>27.19931862308803</v>
+        <v>27.19931862307256</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>18.97224668798363</v>
+        <v>18.97224668798568</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.7361843207976</v>
+        <v>26.73618432079703</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>32.2392866098664</v>
+        <v>32.23928660985344</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>32.52168226237662</v>
+        <v>32.52168226234979</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>40.03587508385359</v>
+        <v>40.03587508385177</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>44.59327704596736</v>
+        <v>44.59327704594178</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>13.68002419605553</v>
+        <v>13.68002419601449</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>32.54798116462981</v>
+        <v>32.54798116454727</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>40.68784843397528</v>
+        <v>40.68784843394527</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.3771601846209123</v>
+        <v>0.3771601846135226</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>32.65044677721513</v>
+        <v>32.65044677724787</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>40.65836844437464</v>
+        <v>40.65836844437293</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>9.585525594161332</v>
+        <v>9.585525594194074</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>24.09454183028159</v>
+        <v>24.09454183027238</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>30.77168623482358</v>
+        <v>30.77168623484859</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.54351342567983</v>
+        <v>22.54351342566618</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>30.31088737220269</v>
+        <v>30.31088737220576</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>35.8154051860923</v>
+        <v>35.81540518607354</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.0985544866406</v>
+        <v>36.09855448669301</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>43.61566833332105</v>
+        <v>43.61566833335367</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>48.17430505355443</v>
+        <v>48.17430505356375</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>17.2552051154299</v>
+        <v>17.25520511547037</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.12861776705457</v>
+        <v>36.1286177670033</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>44.27008589045359</v>
+        <v>44.27008589041346</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>8.996136766096321</v>
+        <v>8.996136766014807</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>41.27093531513511</v>
+        <v>41.2709353151176</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>49.27977388470421</v>
+        <v>49.27977388468158</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>18.20505412385202</v>
+        <v>18.20505412384247</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>32.71565355913034</v>
+        <v>32.71565355911351</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.39363994754668</v>
+        <v>39.39363994753122</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.16544149907971</v>
+        <v>31.16544149912257</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>38.93424970210113</v>
+        <v>38.93424970211978</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>44.43949584550804</v>
+        <v>44.43949584553578</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>44.7240391721169</v>
+        <v>44.72403917214429</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>52.24183773999172</v>
+        <v>52.24183774000763</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>56.80096511283372</v>
+        <v>56.80096511281211</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.8784380501448</v>
+        <v>25.87843805011968</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>44.75363419915035</v>
+        <v>44.75363419911385</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>52.89605510403734</v>
+        <v>52.89605510405973</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>-9.594474728063496</v>
+        <v>-9.594474728040758</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.67344627154394</v>
+        <v>22.67344627156702</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>30.6793888199198</v>
+        <v>30.67938881994606</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>-0.379780272054667</v>
+        <v>-0.3797802720536438</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>14.12409824098082</v>
+        <v>14.12409824094365</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>20.79983085571379</v>
+        <v>20.79983085567786</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>12.57280863442369</v>
+        <v>12.57280863443119</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>20.33575163663769</v>
+        <v>20.33575163663757</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.83914727329621</v>
+        <v>25.83914727327075</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.12135639983361</v>
+        <v>26.12135639985475</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>33.63516376628191</v>
+        <v>33.63516376633478</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>38.19301698654973</v>
+        <v>38.19301698657952</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>7.281382391642602</v>
+        <v>7.281382391663065</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.14798880094471</v>
+        <v>26.14798880099189</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>34.28826337504707</v>
+        <v>34.28826337507254</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>-6.020846859598045</v>
+        <v>-6.020846859607254</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.25128699355613</v>
+        <v>26.25128699355647</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>34.25954133861497</v>
+        <v>34.25954133862998</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3.186825771996006</v>
+        <v>3.186825771995437</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>17.69471442108951</v>
+        <v>17.69471442111224</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>24.3721943045061</v>
+        <v>24.3721943045584</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>23.91045020202383</v>
+        <v>23.91045020208727</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>29.41526147447981</v>
+        <v>29.41526147453359</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>29.69822424709658</v>
+        <v>29.69822424708385</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>37.21495265664051</v>
+        <v>37.21495265667871</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.77404072527653</v>
+        <v>41.77404072523719</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>10.85655885924367</v>
+        <v>10.85655885924117</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>29.72862088205212</v>
+        <v>29.7286208820387</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>37.87049641628911</v>
+        <v>37.87049641633424</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2.597054822623214</v>
+        <v>2.597054822608662</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>34.87070056799163</v>
+        <v>34.87070056799765</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>42.87987184015466</v>
+        <v>42.87987184012339</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>11.80527940617056</v>
+        <v>11.80527940614669</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.31475116331077</v>
+        <v>26.3147511632645</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>32.99307303932013</v>
+        <v>32.99307303928318</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>24.76492405993221</v>
+        <v>24.76492405991981</v>
       </c>
     </row>
     <row r="173">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>38.03827709544722</v>
+        <v>38.03827709542346</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>38.32263396683603</v>
+        <v>38.32263396675997</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>45.84004710228051</v>
+        <v>45.84004710230291</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>50.39962581556366</v>
+        <v>50.39962581554183</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>19.47871692105033</v>
+        <v>19.47871692107602</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>38.35256232225716</v>
+        <v>38.35256232232253</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>46.49539066942631</v>
+        <v>46.49539066942574</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>-1.05707897967833</v>
+        <v>-1.057078979653319</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>31.21167092031995</v>
+        <v>31.21167092029813</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>39.21761748747971</v>
+        <v>39.21761748751927</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>8.158367370704887</v>
+        <v>8.158367370714437</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.6630362225488</v>
+        <v>22.66303622252652</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29.33878210063707</v>
+        <v>29.338782100688</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.11149738899004</v>
+        <v>21.11149738899788</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.87513728503924</v>
+        <v>28.87513728500399</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.3785474701269</v>
+        <v>34.37854747009154</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>34.66047390159641</v>
+        <v>34.66047390163904</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>42.17460287736738</v>
+        <v>42.174602877375</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.73243995695903</v>
+        <v>46.73243995699109</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>15.81965701812836</v>
+        <v>15.81965701817702</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>34.68709765805303</v>
+        <v>34.68709765809009</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>42.82738119819222</v>
+        <v>42.82738119824554</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>2.518678045938906</v>
+        <v>2.518678045964485</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>34.79164086394936</v>
+        <v>34.79164086394538</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>42.7998991748204</v>
+        <v>42.79989917482165</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>11.72710264623489</v>
+        <v>11.72710264624785</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.2357816975128</v>
+        <v>26.23578169752906</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>32.91327478626985</v>
+        <v>32.91327478626007</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>32.45196526981132</v>
+        <v>32.45196526981621</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>37.95679103700498</v>
+        <v>37.95679103704216</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>38.23947110697858</v>
+        <v>38.2394711069497</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.75652114908981</v>
+        <v>45.75652114905548</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>50.31559304730236</v>
+        <v>50.31559304726974</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>19.39696281790392</v>
+        <v>19.39696281795235</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>38.26985914711971</v>
+        <v>38.26985914711766</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>46.41174358931877</v>
+        <v>46.41174358936151</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>11.13518303766053</v>
+        <v>11.13518303765871</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>43.40965768576458</v>
+        <v>43.40965768577413</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>51.41883295112515</v>
+        <v>51.4188329510533</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>20.34415952472519</v>
+        <v>20.34415952475975</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>34.85442162997784</v>
+        <v>34.85442163000103</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>41.5327567403211</v>
+        <v>41.5327567402987</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>33.30434535939613</v>
+        <v>33.30434535941796</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>41.07285569381505</v>
+        <v>41.07285569384597</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.57840981968408</v>
+        <v>46.57840981967316</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>46.86248404716351</v>
+        <v>46.86248404721444</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>54.38021879860124</v>
+        <v>54.38021879866877</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>58.93978134865809</v>
+        <v>58.93978134868902</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.01772414572346</v>
+        <v>28.01772414575756</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>46.8924038082849</v>
+        <v>46.89240380822397</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>55.03524108824828</v>
+        <v>55.03524108824464</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>1.487318137355452</v>
+        <v>1.487318137353064</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>33.75490676359717</v>
+        <v>33.75490676357602</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>41.75993688257321</v>
+        <v>41.75993688254695</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.70291616330061</v>
+        <v>10.70291616331675</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>25.20755743422747</v>
+        <v>25.20755743428932</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>31.88249868021725</v>
+        <v>31.88249868025465</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>23.6555513285435</v>
+        <v>23.65555132853418</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.41949950283568</v>
+        <v>31.41949950279533</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.92223245438569</v>
+        <v>36.92223245436158</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>37.20420530715941</v>
+        <v>37.2042053071585</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>44.71819134253334</v>
+        <v>44.71819134250264</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>49.27535388195778</v>
+        <v>49.27535388195948</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>18.36334740917945</v>
+        <v>18.363347409238</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>37.23058353254984</v>
+        <v>37.23058353256052</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>45.36990812526115</v>
+        <v>45.36990812520636</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>5.064688333846412</v>
+        <v>5.064688333809919</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>37.33648971298575</v>
+        <v>37.33648971296062</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>45.34383129927684</v>
+        <v>45.34383129927263</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>14.27326513221836</v>
+        <v>14.27326513224303</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.78191642965586</v>
+        <v>28.78191642966268</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.4586046296691</v>
+        <v>35.45860462969218</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>27.23055662655698</v>
+        <v>27.23055662656892</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>34.99794096709669</v>
+        <v>34.99794096710806</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>40.50208927577963</v>
+        <v>40.50208927572768</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>40.78481570297375</v>
+        <v>40.78481570302002</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.301722624927</v>
+        <v>48.30172262494008</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>52.86011980860118</v>
+        <v>52.8601198086055</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>21.9422665536816</v>
+        <v>21.94226655372446</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>40.81495811323062</v>
+        <v>40.81495811321107</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>48.95588335913427</v>
+        <v>48.95588335905173</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>13.68173645838075</v>
+        <v>13.68173645841326</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.89086505992619</v>
+        <v>22.89086505985673</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>37.40109934147866</v>
+        <v>37.40109934139999</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.0786295058393</v>
+        <v>44.07862950582781</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>35.85055588975555</v>
+        <v>35.85055588975884</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>43.61937429233998</v>
+        <v>43.61937429237204</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>49.124250913871</v>
+        <v>49.12425091383985</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.40837136400133</v>
+        <v>49.40837136404658</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>56.92596292714071</v>
+        <v>56.92596292712775</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>61.48485073279263</v>
+        <v>61.48485073281071</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>30.56357068961571</v>
+        <v>30.56357068963231</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>49.43804552641162</v>
+        <v>49.43804552636728</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>57.5799235288284</v>
+        <v>57.57992352878099</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>-8.976797842748091</v>
+        <v>-8.976797842751729</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>23.28960662119047</v>
+        <v>23.28960662118933</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>31.29500976116386</v>
+        <v>31.29500976121036</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>0.2378787091535841</v>
+        <v>0.2378787092042884</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>14.74125923094513</v>
+        <v>14.74125923091966</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>21.41651890060697</v>
+        <v>21.41651890058434</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>13.18996748673779</v>
+        <v>13.18996748675212</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>20.95276211557583</v>
+        <v>20.95276211555912</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.4557632048413</v>
+        <v>26.45576320482811</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.73822154150488</v>
+        <v>26.73822154149851</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>34.25162018724537</v>
+        <v>34.25162018718921</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>38.80894513794359</v>
+        <v>38.80894513795439</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>7.898535852388783</v>
+        <v>7.898535852400038</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.76448478989933</v>
+        <v>26.76448478989729</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>34.90416712565953</v>
+        <v>34.90416712566476</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>-5.402383167477332</v>
+        <v>-5.402383167490065</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.86823405332401</v>
+        <v>26.86823405334618</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>34.87594888504119</v>
+        <v>34.87594888503335</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>3.805272101053411</v>
+        <v>3.805272101092633</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>18.31266266410213</v>
+        <v>18.31266266407439</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.98966951273641</v>
+        <v>24.98966951267945</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>16.76201701564806</v>
+        <v>16.76201701564363</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>24.52824782634055</v>
+        <v>24.52824782630645</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>30.03266447507243</v>
+        <v>30.03266447504412</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>30.31587627967823</v>
+        <v>30.31587627966811</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>37.83219583645435</v>
+        <v>37.83219583647107</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>42.39075556575491</v>
+        <v>42.39075556579356</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>11.47449930891101</v>
+        <v>11.47449930889203</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>30.34590369594795</v>
+        <v>30.34590369592839</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>38.48718691442419</v>
+        <v>38.48718691438349</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>3.216481014857401</v>
+        <v>3.216481014802604</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>35.48861011366338</v>
+        <v>35.48861011366872</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>43.49724176104754</v>
+        <v>43.49724176103719</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>12.42468824610497</v>
+        <v>12.42468824621377</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.93366190000878</v>
+        <v>26.93366190003379</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>33.61151065757857</v>
+        <v>33.611510657578</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>25.38383256103733</v>
+        <v>25.3838325610188</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>33.15149752413648</v>
+        <v>33.15149752407395</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>38.65664243842635</v>
+        <v>38.65664243840794</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>38.9412482647169</v>
+        <v>38.94124826465482</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>46.45825250580193</v>
+        <v>46.4582525058017</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>51.01730283798243</v>
+        <v>51.01730283801324</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>20.09761967254254</v>
+        <v>20.09761967254277</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>38.97080741331487</v>
+        <v>38.97080741332146</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.11304334851203</v>
+        <v>47.11304334850646</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>-9.138704871461677</v>
+        <v>-9.138704871457584</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>23.12984810738075</v>
+        <v>23.1298481074211</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>31.13583040369834</v>
+        <v>31.13583040371505</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>0.07632189540978374</v>
+        <v>0.07632189544468559</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>14.5807419790112</v>
+        <v>14.58074197902348</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>21.25651395791746</v>
+        <v>21.25651395793121</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>13.02911954465477</v>
+        <v>13.02911954463419</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>20.79251945328686</v>
+        <v>20.79251945332756</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.29595056805245</v>
+        <v>26.29595056805177</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.5781856929818</v>
+        <v>26.57818569301454</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>34.09225292566176</v>
+        <v>34.09225292563129</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>38.65010784228772</v>
+        <v>38.65010784226373</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>7.737589559356103</v>
+        <v>7.737589559385661</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.6048074696815</v>
+        <v>26.60480746970583</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>34.74511746722268</v>
+        <v>34.74511746722552</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-5.564572079350491</v>
+        <v>-5.564572079360154</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.70819379002793</v>
+        <v>26.70819379001451</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>34.71648786158411</v>
+        <v>34.71648786159184</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>3.643432835638087</v>
+        <v>3.643432835629902</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>18.1518630857067</v>
+        <v>18.15186308570897</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>24.82938230593307</v>
+        <v>24.82938230592182</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>16.60088684394653</v>
+        <v>16.60088684396222</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>24.36772303808751</v>
+        <v>24.36772303807194</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>29.87256976209343</v>
+        <v>29.87256976210457</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>30.15555856282761</v>
+        <v>30.15555856285444</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>37.67254685488384</v>
+        <v>37.67254685485735</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>42.23163660585518</v>
+        <v>42.23163660586791</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>11.31327105321517</v>
+        <v>11.31327105327656</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>30.18594462325685</v>
+        <v>30.18594462326765</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>38.32785555247809</v>
+        <v>38.32785555248855</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>3.05274506082511</v>
+        <v>3.052745060832727</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>35.32702280193254</v>
+        <v>35.32702280192924</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.33623383216419</v>
+        <v>43.33623383214998</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>12.26130190713317</v>
+        <v>12.26130190714829</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.77131525387343</v>
+        <v>26.77131525386752</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.44967649798749</v>
+        <v>33.44967649802103</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>25.22115538268903</v>
+        <v>25.2211553826722</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>32.98942573659618</v>
+        <v>32.98942573657686</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.49500082093717</v>
+        <v>38.49500082088669</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>38.77938373805826</v>
+        <v>38.77938373819696</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>46.29705675258364</v>
+        <v>46.29705675261092</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>50.85663716248526</v>
+        <v>50.85663716252892</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>19.93484457201597</v>
+        <v>19.93484457204257</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>38.80930151935805</v>
+        <v>38.80930151939989</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>46.95216528778118</v>
+        <v>46.95216528774616</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>5.690162650841522</v>
+        <v>5.690162650813555</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>37.95897470737437</v>
+        <v>37.9589747073605</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>45.96440089165079</v>
+        <v>45.96440089165738</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>14.90676496305522</v>
+        <v>14.90676496304214</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>29.41206630383621</v>
+        <v>29.41206630384507</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.08734866508538</v>
+        <v>36.08734866510562</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>27.8600861470671</v>
+        <v>27.86008614709586</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>35.62445755368648</v>
+        <v>35.62445755369477</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>41.12747555879908</v>
+        <v>41.12747555881807</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>41.40950180523665</v>
+        <v>41.4095018053118</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>48.92372408943182</v>
+        <v>48.92372408940943</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>53.48103817901139</v>
+        <v>53.481038179024</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.56789049095695</v>
+        <v>22.56789049097082</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>41.43598858853428</v>
+        <v>41.43598858855349</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>49.5757472417126</v>
+        <v>49.57574724174102</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>9.262594902857209</v>
+        <v>9.262594902929742</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>41.53561977083447</v>
+        <v>41.53561977089267</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>49.54335748954437</v>
+        <v>49.543357489577</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>18.47217544736983</v>
+        <v>18.47217544742087</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>32.98148688160571</v>
+        <v>32.9814868816314</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>39.65851624270723</v>
+        <v>39.65851624270496</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>31.43015292932883</v>
+        <v>31.4301529293742</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>39.19796056102151</v>
+        <v>39.19796056106062</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>44.7023939597528</v>
+        <v>44.70239395972472</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>44.98517390861488</v>
+        <v>44.98517390866342</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>52.50231714893956</v>
+        <v>52.50231714901243</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>57.06086593132394</v>
+        <v>57.06086593133281</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.14187141901592</v>
+        <v>26.14187141908743</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>45.01542505937513</v>
+        <v>45.01542505940787</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>53.15678438791232</v>
+        <v>53.15678438787207</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>17.88050970739115</v>
+        <v>17.8805097074821</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>50.15504638532783</v>
+        <v>50.15504638537615</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>58.16370101147717</v>
+        <v>58.16370101150945</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>27.09064215722329</v>
+        <v>27.09064215722477</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.60153662973911</v>
+        <v>41.60153662975082</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>48.27940799090671</v>
+        <v>48.27940799085896</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.05101906007493</v>
+        <v>40.05101906009846</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>47.8202607994693</v>
+        <v>47.82026079946885</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>53.32542254542587</v>
+        <v>53.32542254547601</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>53.60959657101281</v>
+        <v>53.6095965710883</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>61.12742448404568</v>
+        <v>61.12742448401385</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>65.68646389848081</v>
+        <v>65.68646389846307</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>34.76404244428758</v>
+        <v>34.7640424442911</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>53.63937942373476</v>
+        <v>53.63937942378444</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>61.78169154948588</v>
+        <v>61.78169154951021</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-14.00362102366049</v>
+        <v>-14.0036210236464</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>18.26221836082569</v>
+        <v>18.26221836077556</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.26781840118016</v>
+        <v>26.26781840116754</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-4.789889646309042</v>
+        <v>-4.789889646278233</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>9.713080692817321</v>
+        <v>9.713080692808909</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>16.38851453392541</v>
+        <v>16.38851453392973</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>8.161918469410431</v>
+        <v>8.161918469423505</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>15.92438426781958</v>
+        <v>15.92438426787097</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>21.42753974290789</v>
+        <v>21.42753974297758</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.70992996531171</v>
+        <v>21.7099299652909</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>29.22314430316711</v>
+        <v>29.2231443031645</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>33.78057747820261</v>
+        <v>33.7805774782042</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>2.870384168188899</v>
+        <v>2.870384168212887</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.73596234601731</v>
+        <v>21.7359623460239</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.87575957410112</v>
+        <v>29.87575957410271</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>-10.43150848829865</v>
+        <v>-10.43150848828956</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>21.83854355793934</v>
+        <v>21.83854355793115</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>29.84645537500122</v>
+        <v>29.84645537500452</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>-1.224798413121938</v>
+        <v>-1.224798413097041</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>13.28218184469332</v>
+        <v>13.28218184469684</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>19.95936296689555</v>
+        <v>19.95936296692329</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>11.73166574226772</v>
+        <v>11.73166574225851</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>19.4975676072307</v>
+        <v>19.49756760718079</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>25.00213873593858</v>
+        <v>25.00213873590607</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.28528249309189</v>
+        <v>25.2852824930853</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>32.80141767457504</v>
+        <v>32.80141767454935</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>37.36008565290816</v>
+        <v>37.36008565287337</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>6.444045479545444</v>
+        <v>6.444045479542147</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>25.31507895732121</v>
+        <v>25.31507895735771</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>33.45647720636972</v>
+        <v>33.45647720633868</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-1.812784682030077</v>
+        <v>-1.812784682055657</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>30.45877928492049</v>
+        <v>30.45877928491719</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>38.46760788496518</v>
+        <v>38.4676078849828</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>7.394477392303848</v>
+        <v>7.394477392320901</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>21.90304079337508</v>
+        <v>21.90304079339668</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.58106378988051</v>
+        <v>28.58106378991098</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.35334092129104</v>
+        <v>20.35334092124273</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.12067698882046</v>
+        <v>28.12067698876896</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>33.62597635169637</v>
+        <v>33.62597635170956</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>33.9105140780235</v>
+        <v>33.91051407806477</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>41.42733396844456</v>
+        <v>41.42733396841171</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>45.98649255092467</v>
+        <v>45.98649255093013</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>15.06702549827249</v>
+        <v>15.06702549826158</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>33.93984237659807</v>
+        <v>33.93984237663809</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>42.08219330244398</v>
+        <v>42.08219330245876</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>-3.312008697558021</v>
+        <v>-3.312008697542559</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.95594465045584</v>
+        <v>28.95594465042492</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.96121978885125</v>
+        <v>36.96121978877871</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>5.90265377788554</v>
+        <v>5.902653777865076</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>20.40709245999309</v>
+        <v>20.40709245994693</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>27.08219399327864</v>
+        <v>27.0821939932725</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>18.85549020729942</v>
+        <v>18.85549020724519</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.6190836383325</v>
+        <v>26.61908363826748</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>32.12193707256355</v>
+        <v>32.12193707251796</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>32.40420951696247</v>
+        <v>32.40420951699362</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>39.91817014976183</v>
+        <v>39.91817014969578</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>44.47543016668222</v>
+        <v>44.47543016667893</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>13.56315755283853</v>
+        <v>13.56315755283546</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>32.43037187013837</v>
+        <v>32.43037187010324</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>40.56985972431593</v>
+        <v>40.56985972428989</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0.2641352031171991</v>
+        <v>0.2641352031431197</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>32.53630143970266</v>
+        <v>32.53630143976121</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>40.54388820354219</v>
+        <v>40.54388820356242</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>9.47177626815877</v>
+        <v>9.471776268193672</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>23.98022505787636</v>
+        <v>23.9802250579033</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.65707370226365</v>
+        <v>30.6570737022699</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>22.42926912346692</v>
+        <v>22.42926912338859</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>30.19629877661813</v>
+        <v>30.19629877654696</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>35.7005677071099</v>
+        <v>35.70056770708387</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>35.98359374596495</v>
+        <v>35.98359374595653</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>43.50047532270397</v>
+        <v>43.50047532261222</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>48.05897006054507</v>
+        <v>48.05897006052245</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>17.14085045923897</v>
+        <v>17.14085045923704</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.01352031364475</v>
+        <v>36.01352031364942</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>44.15460900546289</v>
+        <v>44.15460900539889</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>8.882522518823144</v>
+        <v>8.88252251881746</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>41.15620066494349</v>
+        <v>41.15620066496316</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>49.16470430208934</v>
+        <v>49.16470430208332</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>18.09071545864636</v>
+        <v>18.09071545866546</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>32.60074740760634</v>
+        <v>32.60074740760236</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>39.27843799965532</v>
+        <v>39.27843799963087</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>31.05060778692583</v>
+        <v>31.05060778687672</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.81907166308846</v>
+        <v>38.81907166308334</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>44.32406888868965</v>
+        <v>44.32406888868226</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>44.60848889118162</v>
+        <v>44.60848889120026</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>52.12605516393622</v>
+        <v>52.12605516394691</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>56.68504054184265</v>
+        <v>56.68504054182809</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>25.76349395109317</v>
+        <v>25.76349395108829</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>44.63794725495435</v>
+        <v>44.63794725493377</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>52.77998868671678</v>
+        <v>52.7799886866995</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>-12.64343538637892</v>
+        <v>-12.64343538637335</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>19.62362256807679</v>
+        <v>19.62362256807975</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.62900938985987</v>
+        <v>27.62900938989579</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>-3.429385725817419</v>
+        <v>-3.429385725798205</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>11.07418889633558</v>
+        <v>11.07418889635593</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>17.74939060267135</v>
+        <v>17.74939060267578</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>9.522943269047083</v>
+        <v>9.522943269017411</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.28577210383215</v>
+        <v>17.28577210380293</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>22.78871114799764</v>
+        <v>22.78871114796114</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>23.07131784232146</v>
+        <v>23.07131784233214</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.58485122695853</v>
+        <v>30.58485122695</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>35.1421485366919</v>
+        <v>35.14214853670804</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>4.231128155383395</v>
+        <v>4.231128155343832</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>23.09744121004879</v>
+        <v>23.0974412100206</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>31.23705448294489</v>
+        <v>31.23705448285497</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-9.07178565502992</v>
+        <v>-9.071785655057205</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.19948510643641</v>
+        <v>23.19948510643072</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>31.20718362000147</v>
+        <v>31.20718361998862</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>0.1352423659427231</v>
+        <v>0.135242365887585</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>14.64282703181603</v>
+        <v>14.64282703173122</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>21.31977591410676</v>
+        <v>21.31977591408994</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>13.09222756230118</v>
+        <v>13.09222756231244</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>20.85849256752257</v>
+        <v>20.85849256753632</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.36284716619567</v>
+        <v>26.36284716617907</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.64620750386845</v>
+        <v>26.64620750386401</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>34.16266180338376</v>
+        <v>34.16266180335466</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.72119387387189</v>
+        <v>38.72119387384631</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>7.804326573434274</v>
+        <v>7.804326573415743</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.6760950910046</v>
+        <v>26.67609509095845</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>34.81730925928715</v>
+        <v>34.81730925928124</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>-0.4512275039703937</v>
+        <v>-0.4512275039602756</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>31.82155525520735</v>
+        <v>31.82155525520542</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>39.83017059517098</v>
+        <v>39.83017059514619</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>8.756352504451989</v>
+        <v>8.756352504435618</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>23.26552039857867</v>
+        <v>23.26552039853467</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>29.94331118898693</v>
+        <v>29.94331118898545</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>21.7157372721825</v>
+        <v>21.71573727217352</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>29.48343655716152</v>
+        <v>29.48343655717482</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.98851941751658</v>
+        <v>34.98851941753295</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.27327366774963</v>
+        <v>35.27327366773121</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>42.7904126816696</v>
+        <v>42.79041268170348</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>47.34943537692603</v>
+        <v>47.34943537689875</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>16.42914099431228</v>
+        <v>16.4291409943066</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>35.30269302106498</v>
+        <v>35.30269302102473</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>43.44485989833387</v>
+        <v>43.44485989828748</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>-17.57241069988519</v>
+        <v>-17.5724106998803</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>14.6933171014044</v>
+        <v>14.69331710138768</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.69837005261157</v>
+        <v>22.69837005258747</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>-8.359246364340073</v>
+        <v>-8.359246364297782</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>6.143551935369679</v>
+        <v>6.143551935340007</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.81845714005075</v>
+        <v>12.81845714005416</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>4.592355904184352</v>
+        <v>4.592355904173552</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>12.35465179370234</v>
+        <v>12.35465179369995</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.85733969807423</v>
+        <v>17.85733969804195</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>18.14005514318509</v>
+        <v>18.14005514316349</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>25.6533001797122</v>
+        <v>25.65330017962795</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>30.21046259592557</v>
+        <v>30.21046259587134</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>-0.6991547966249883</v>
+        <v>-0.6991547966131648</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>18.16622408349698</v>
+        <v>18.16622408347151</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.30547814054577</v>
+        <v>26.30547814054656</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-13.99977070018432</v>
+        <v>-13.99977070015385</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.27016977051093</v>
+        <v>18.27016977055458</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.27753436577992</v>
+        <v>26.27753436578856</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-4.793627685749961</v>
+        <v>-4.793627685653327</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.713180512261339</v>
+        <v>9.713180512258837</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>16.38983286940273</v>
+        <v>16.38983286938068</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>8.162630670722898</v>
+        <v>8.162630670725058</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>15.92836260141254</v>
+        <v>15.92836260137206</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>21.43246604531927</v>
+        <v>21.43246604532131</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.71593507993983</v>
+        <v>21.71593507992096</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>29.23210093911162</v>
+        <v>29.2321009391272</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>33.79049808539124</v>
+        <v>33.79049808538397</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>2.875033905081487</v>
+        <v>2.875033905095584</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>21.74586805475231</v>
+        <v>21.74586805476903</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.88672299478352</v>
+        <v>29.88672299480967</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-5.379356528175926</v>
+        <v>-5.379356528188318</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.89209590847812</v>
+        <v>26.89209590842264</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>34.90037730303739</v>
+        <v>34.90037730304297</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>3.827338444843996</v>
+        <v>3.827338444812391</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>18.33572984329506</v>
+        <v>18.33572984323128</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>25.01322407410938</v>
+        <v>25.01322407403082</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>16.78599630992763</v>
+        <v>16.78599630991149</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>24.55316249707149</v>
+        <v>24.55316249706103</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>30.05799416990848</v>
+        <v>30.05799416989961</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>30.34285703409838</v>
+        <v>30.34285703409622</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.85970759389939</v>
+        <v>37.85970759389587</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.41859535216948</v>
+        <v>42.41859535213674</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.49970419249208</v>
+        <v>11.49970419245445</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.37232181394287</v>
+        <v>30.37232181391933</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>38.51412942389421</v>
+        <v>38.51412942390433</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-6.963219671276683</v>
+        <v>-6.963219671325341</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.30515536752122</v>
+        <v>25.30515536753611</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.3112827391686</v>
+        <v>33.31128273918713</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>2.25172606208158</v>
+        <v>2.251726062116482</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>16.75589098931638</v>
+        <v>16.7558909893141</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.43179145413259</v>
+        <v>23.43179145410269</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>15.20468913969622</v>
+        <v>15.20468913970839</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.96783838782866</v>
+        <v>22.96783838787118</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.47137919166433</v>
+        <v>28.47137919167275</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.75354595474638</v>
+        <v>28.7535459547391</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>36.26742627040718</v>
+        <v>36.26742627040945</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>40.82531915297815</v>
+        <v>40.82531915294506</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>9.913098936405923</v>
+        <v>9.913098936391826</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.78006393184531</v>
+        <v>28.78006393182053</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.92051974554882</v>
+        <v>36.92051974554985</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>-3.39092629528708</v>
+        <v>-3.390926295271278</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.88166163772663</v>
+        <v>28.88166163775869</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.89010082978901</v>
+        <v>36.89010082979129</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>5.816997446398965</v>
+        <v>5.816997446396236</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>20.32517255278659</v>
+        <v>20.32517255279068</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>27.00282030190382</v>
+        <v>27.00282030186346</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>18.77461679336451</v>
+        <v>18.77461679335655</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.54120234072465</v>
+        <v>26.54120234073272</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>32.04615879125546</v>
+        <v>32.0461587912957</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>32.32907923761112</v>
+        <v>32.32907923769616</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>39.84588061872179</v>
+        <v>39.84588061870985</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>44.40500836342684</v>
+        <v>44.40500836346504</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>13.48694087493796</v>
+        <v>13.4869408750321</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>32.3593615386338</v>
+        <v>32.35936153866825</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>40.50141833456345</v>
+        <v>40.50141833454844</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>5.227142813652755</v>
+        <v>5.227142813620354</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>37.5012426646451</v>
+        <v>37.50124266467818</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>45.51059878313773</v>
+        <v>45.51059878313989</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>14.4356185338174</v>
+        <v>14.43561853379978</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.94537677090269</v>
+        <v>28.94537677091679</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>35.62386651783603</v>
+        <v>35.6238665178059</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>27.39563738932505</v>
+        <v>27.39563738936462</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.16365712420551</v>
+        <v>35.16365712423711</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>40.66934191342724</v>
+        <v>40.6693419134568</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>40.95365648910282</v>
+        <v>40.95365648912146</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>48.47114260438237</v>
+        <v>48.471142604361</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>53.0307609961579</v>
+        <v>53.03076099617791</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.10926643129536</v>
+        <v>22.10926643136016</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>40.98347049952368</v>
+        <v>40.98347049953642</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>49.12648011317477</v>
+        <v>49.12648011315977</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-4.314330758855171</v>
+        <v>-4.314330758831979</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>27.9531613464878</v>
+        <v>27.95316134646335</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>35.9587121977158</v>
+        <v>35.95871219770614</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>4.90032410847558</v>
+        <v>4.900324108473534</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.40441698649212</v>
+        <v>19.40441698650928</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.07977893761264</v>
+        <v>26.07977893759422</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.85299556712967</v>
+        <v>17.85299556718629</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>25.6163101349044</v>
+        <v>25.61631013502957</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>31.11939234776874</v>
+        <v>31.11939234781706</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>31.40159308009148</v>
+        <v>31.40159308016617</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>38.91533783373435</v>
+        <v>38.91533783374276</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>43.47274097065232</v>
+        <v>43.47274097069199</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.56084419939574</v>
+        <v>12.56084419944224</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>31.4277238310835</v>
+        <v>31.42772383110147</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>39.56749317097202</v>
+        <v>39.56749317101329</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-0.7431549197957921</v>
+        <v>-0.743154919786015</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>31.52854995914227</v>
+        <v>31.52854995916535</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>39.53641251896553</v>
+        <v>39.53641251898042</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>8.464478341178697</v>
+        <v>8.464478341160394</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.97258122395586</v>
+        <v>22.97258122391221</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.64969037417355</v>
+        <v>29.64969037418776</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>21.42180598896638</v>
+        <v>21.42180598893034</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>29.18855669036028</v>
+        <v>29.1885566903571</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>34.69305447968437</v>
+        <v>34.69305447966743</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>34.97600888555561</v>
+        <v>34.97600888551946</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>42.49267453790807</v>
+        <v>42.49267453789511</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>47.05131243787556</v>
+        <v>47.05131243779166</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>16.13356878557746</v>
+        <v>16.13356878552892</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.00590384277117</v>
+        <v>35.00590384271467</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.14727411038151</v>
+        <v>43.14727411036855</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>7.875638193104429</v>
+        <v>7.875638193118867</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>40.14885501554905</v>
+        <v>40.14885501560749</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>48.15763441386533</v>
+        <v>48.15763441388</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>17.0838234092308</v>
+        <v>17.08382340928934</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>31.59350947261779</v>
+        <v>31.59350947259937</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>38.27146054250633</v>
+        <v>38.27146054248234</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>30.04355052875311</v>
+        <v>30.04355052880597</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>37.81173546894873</v>
+        <v>37.81173546897408</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>43.31696153044296</v>
+        <v>43.31696153041181</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>43.60130989650255</v>
+        <v>43.60130989650334</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>51.11866026846709</v>
+        <v>51.11866026843094</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>55.6777887974849</v>
+        <v>55.67778879743431</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>24.75661814993949</v>
+        <v>24.75661814991073</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>43.63073666873898</v>
+        <v>43.63073666867282</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>51.77305965323907</v>
+        <v>51.7730596531563</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1.610258859446922</v>
+        <v>1.610258859484212</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>33.88004099513417</v>
+        <v>33.8800409951618</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>41.8862486855788</v>
+        <v>41.8862486855755</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>10.82649166464576</v>
+        <v>10.82649166461132</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>25.33178750471537</v>
+        <v>25.33178750467547</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>32.00776420009068</v>
+        <v>32.00776420010103</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.780093949279</v>
+        <v>23.78009394931561</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.54417483365611</v>
+        <v>31.54417483364531</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>37.04778060325938</v>
+        <v>37.04778060326267</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.32965375069292</v>
+        <v>37.32965375073783</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>44.84402600702659</v>
+        <v>44.84402600697111</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.40197526802498</v>
+        <v>49.40197526801213</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>18.48810494168875</v>
+        <v>18.48810494172172</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.35632474573705</v>
+        <v>37.35632474574967</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.49688807465414</v>
+        <v>45.49688807465778</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>5.183450629307423</v>
+        <v>5.183450629341415</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>37.45744574025431</v>
+        <v>37.4574457402592</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>45.46596521640807</v>
+        <v>45.46596521642262</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>14.39266135619967</v>
+        <v>14.39266135622173</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.90196746130263</v>
+        <v>28.90196746130683</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>35.5796913903558</v>
+        <v>35.57969139033045</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>27.35092006415058</v>
+        <v>27.35092006414774</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>35.11843732385235</v>
+        <v>35.11843732386145</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>40.62345869127872</v>
+        <v>40.6234586913159</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>40.90608556844742</v>
+        <v>40.90608556854041</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>48.42337894946248</v>
+        <v>48.4233789494394</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>52.98256305386209</v>
+        <v>52.98256305391677</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22.06284538961037</v>
+        <v>22.0628453896181</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>40.93652098486174</v>
+        <v>40.93652098488686</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>49.0786852240578</v>
+        <v>49.07868522399345</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>13.80053479426859</v>
+        <v>13.80053479426257</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>46.07604176927108</v>
+        <v>46.07604176925471</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>54.08547821588805</v>
+        <v>54.08547821587884</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>23.01029746102866</v>
+        <v>23.0102974610215</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>37.52118665071369</v>
+        <v>37.52118665064162</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>44.19975262374074</v>
+        <v>44.19975262372483</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>35.97095565366666</v>
+        <v>35.97095565367245</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>43.73990706063395</v>
+        <v>43.73990706057176</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>49.24565680889631</v>
+        <v>49.24565680887346</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>49.52967788634404</v>
+        <v>49.52967788644442</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>57.04765599216065</v>
+        <v>57.04765599212472</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>61.60733075220272</v>
+        <v>61.60733075222182</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>30.68418603014921</v>
+        <v>30.68418603012147</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>49.55964499819807</v>
+        <v>49.55964499816681</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>57.70276209864797</v>
+        <v>57.70276209861307</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-2.300398924070386</v>
+        <v>-2.300398924017408</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>29.96761885771897</v>
+        <v>29.96761885770669</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>37.9735826201996</v>
+        <v>37.97358262020483</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>6.914970688782056</v>
+        <v>6.914970688810932</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>21.41912281860228</v>
+        <v>21.41912281863639</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.09489777229654</v>
+        <v>28.09489777235247</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>19.86770551953028</v>
+        <v>19.86770551951448</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>27.63094575825593</v>
+        <v>27.63094575825422</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>33.13438457930371</v>
+        <v>33.1343845792837</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>33.41625396666355</v>
+        <v>33.41625396666185</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>40.93013692190512</v>
+        <v>40.93013692192286</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>45.48800182870203</v>
+        <v>45.48800182867077</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.57602507608927</v>
+        <v>14.57602507608427</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>33.4428812251892</v>
+        <v>33.44288122523525</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>41.58321035384446</v>
+        <v>41.58321035381706</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>1.273400906103312</v>
+        <v>1.273400906068069</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>33.54563149696738</v>
+        <v>33.54563149694624</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>41.55390701042696</v>
+        <v>41.55390701042707</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>10.48174878195501</v>
+        <v>10.4817487820014</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.98991101143698</v>
+        <v>24.98991101145472</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.6674331919672</v>
+        <v>31.66743319194446</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>23.43913981536885</v>
+        <v>23.43913981536624</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>31.20581628521241</v>
+        <v>31.20581628515625</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.7106707054398</v>
+        <v>36.7106707054489</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.99329375519297</v>
+        <v>36.99329375522253</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>44.51009772135941</v>
+        <v>44.51009772137248</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>49.06919745336048</v>
+        <v>49.06919745337185</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>18.15137351189522</v>
+        <v>18.15137351193285</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>37.02368522845526</v>
+        <v>37.02368522850528</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>45.16561527165057</v>
+        <v>45.16561527163045</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.890015921567588</v>
+        <v>9.89001592152416</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>42.1637583406443</v>
+        <v>42.16375834066533</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>50.17295078857145</v>
+        <v>50.17295078857008</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>19.09891571253601</v>
+        <v>19.09891571257602</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>33.60866098622724</v>
+        <v>33.60866098626533</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.28702516905306</v>
+        <v>40.28702516904374</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>32.05870614915644</v>
+        <v>32.05870614915838</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>39.82681672968382</v>
+        <v>39.8268167296745</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>45.33239949097648</v>
+        <v>45.3323994909617</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>45.616416678234</v>
+        <v>45.61641667825912</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>53.13390535470065</v>
+        <v>53.13390535467712</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>57.69349573224562</v>
+        <v>57.69349573222413</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.7722448394073</v>
+        <v>26.77224483940764</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>45.64633987156852</v>
+        <v>45.64633987161786</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>53.7892227377865</v>
+        <v>53.7892227378322</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>-4.289132019420585</v>
+        <v>-4.289132019486068</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>27.98007676905976</v>
+        <v>27.98007676907215</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>35.98612146464776</v>
+        <v>35.98612146461399</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>4.926105707974976</v>
+        <v>4.926105707987368</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.4310405108732</v>
+        <v>19.43104051089309</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.10684862649619</v>
+        <v>26.10684862647789</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>17.87949861008504</v>
+        <v>17.8794986099983</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>25.64331036998814</v>
+        <v>25.64331037001042</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>31.14677119793244</v>
+        <v>31.14677119791357</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>31.42899416264193</v>
+        <v>31.42899416268855</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>38.9431831631069</v>
+        <v>38.94318316310099</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>43.50089730139856</v>
+        <v>43.50089730138026</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>12.58735642705627</v>
+        <v>12.58735642707696</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>31.45528214596342</v>
+        <v>31.45528214595614</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>39.59558566437416</v>
+        <v>39.59558566441316</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-0.7167598272423348</v>
+        <v>-0.7167598273901277</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.55666191948907</v>
+        <v>31.55666191939198</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>39.56501842000838</v>
+        <v>39.56501841997507</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>8.491455916207734</v>
+        <v>8.491455916162145</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>23.00040092137382</v>
+        <v>23.00040092139007</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.67795630350914</v>
+        <v>29.67795630352335</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>21.44950524133932</v>
+        <v>21.44950524131374</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>29.21675331105299</v>
+        <v>29.2167533110747</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>34.72162976810804</v>
+        <v>34.72162976810531</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>35.00460642494337</v>
+        <v>35.00460642495633</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.52171647941017</v>
+        <v>42.52171647938891</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>47.08066544563697</v>
+        <v>47.08066544558002</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.16127738419205</v>
+        <v>16.16127738418478</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>35.03465879087749</v>
+        <v>35.03465879088318</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>43.17656329546454</v>
+        <v>43.17656329549398</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>7.901107678987465</v>
+        <v>7.901107678939603</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>40.17604137195959</v>
+        <v>40.17604137192924</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>48.18531479199779</v>
+        <v>48.18531479197289</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>17.10987538144703</v>
+        <v>17.10987538140872</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>31.62040356791962</v>
+        <v>31.62040356793519</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.29880094732763</v>
+        <v>38.29880094731933</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.07032421089556</v>
+        <v>30.07032421082257</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>37.83900651903772</v>
+        <v>37.83900651904101</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>43.34461131615009</v>
+        <v>43.3446113161793</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>43.62898207500174</v>
+        <v>43.62898207502538</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>51.14677687370484</v>
+        <v>51.14677687372474</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>55.70621649879646</v>
+        <v>55.70621649877747</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.78340134136814</v>
+        <v>24.78340134138246</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>43.65856622022667</v>
+        <v>43.65856622016664</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>51.8014235250126</v>
+        <v>51.80142352500192</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-9.787774278042583</v>
+        <v>-9.787774278032124</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.47881527210117</v>
+        <v>22.47881527202613</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>30.48458742398847</v>
+        <v>30.48458742402109</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>-0.5733305523469099</v>
+        <v>-0.5733305522879064</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>13.92998600165796</v>
+        <v>13.92998600161055</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.60558486144529</v>
+        <v>20.60558486144517</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>12.37879459959375</v>
+        <v>12.37879459950781</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>20.14145950770554</v>
+        <v>20.14145950772726</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>25.64475114129149</v>
+        <v>25.64475114132525</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>25.9270010297225</v>
+        <v>25.92700102974364</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>33.44042700312192</v>
+        <v>33.44042700315273</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>37.99810062297646</v>
+        <v>37.99810062302546</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>7.087398498861681</v>
+        <v>7.08739849892671</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.9532939396524</v>
+        <v>25.95329393970083</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>34.0933667579878</v>
+        <v>34.09336675804101</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-6.213999365535791</v>
+        <v>-6.213999365530334</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.05680294231941</v>
+        <v>26.05680294236694</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>34.06488686697602</v>
+        <v>34.06488686693077</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>2.993422897626566</v>
+        <v>2.99342289756688</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>17.50074950376651</v>
+        <v>17.50074950373149</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.17809562530098</v>
+        <v>24.17809562525493</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>15.95020416387964</v>
+        <v>15.95020416386429</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.71630526569762</v>
+        <v>23.71630526576674</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>29.2210125313779</v>
+        <v>29.22101253141383</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.50401596558932</v>
+        <v>29.50401596566572</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>37.02036287675795</v>
+        <v>37.02036287677728</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>41.57927134628718</v>
+        <v>41.57927134628911</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>10.66272209214113</v>
+        <v>10.66272209215023</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>29.53407300128193</v>
+        <v>29.53407300129785</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>37.67574680876393</v>
+        <v>37.6757468088011</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>2.403181272719131</v>
+        <v>2.403181272723906</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>34.67549543588992</v>
+        <v>34.67549543590425</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>42.684496216744</v>
+        <v>42.68449621678413</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>11.61115542424542</v>
+        <v>11.61115542419846</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.12006510107832</v>
+        <v>26.12006510107116</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>32.79825315371291</v>
+        <v>32.79825315367085</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>24.57033604938007</v>
+        <v>24.57033604936586</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>32.33787128583716</v>
+        <v>32.3378712858915</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.84330683156835</v>
+        <v>37.84330683161132</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>38.12770434052103</v>
+        <v>38.12770434051887</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>45.64473595345574</v>
+        <v>45.64473595348496</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>50.20413502938205</v>
+        <v>50.20413502940286</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>19.28415890577204</v>
+        <v>19.28415890582365</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>38.15729314801475</v>
+        <v>38.1572931480633</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>46.29991970218506</v>
+        <v>46.29991970222246</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>-3.569145728450657</v>
+        <v>-3.569145728423258</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.69864297582509</v>
+        <v>28.69864297581997</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.70462427822039</v>
+        <v>36.70462427824881</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>5.646099599255614</v>
+        <v>5.646099599239356</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>20.1500825105995</v>
+        <v>20.15008251062871</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.82587463266005</v>
+        <v>26.82587463265642</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>18.59872282147713</v>
+        <v>18.5987228213955</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.36182915731077</v>
+        <v>26.36182915734715</v>
       </c>
     </row>
     <row r="861">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>32.14719185990312</v>
+        <v>32.1471918598855</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>39.66099260636391</v>
+        <v>39.66099260637744</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>44.21887024384053</v>
+        <v>44.21887024382598</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.30714138801303</v>
+        <v>13.30714138801769</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>32.17380574673151</v>
+        <v>32.17380574671468</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>40.31414734961103</v>
+        <v>40.31414734960341</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>0.004193469902894265</v>
+        <v>0.004193469889933965</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>32.27619496257065</v>
+        <v>32.27619496252995</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>40.28448803392413</v>
+        <v>40.28448803383727</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>9.212417073455264</v>
+        <v>9.212417073451626</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.72041006742878</v>
+        <v>23.72041006735613</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>30.39794943617309</v>
+        <v>30.39794943610055</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.16969645488242</v>
+        <v>22.16969645488447</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>29.93623900815575</v>
+        <v>29.93623900815722</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>35.44110902511974</v>
+        <v>35.44110902514156</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>35.7237709841124</v>
+        <v>35.72377098410524</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>43.24049273319573</v>
+        <v>43.24049273318288</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>47.79960520709377</v>
+        <v>47.79960520708615</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>16.88202916962992</v>
+        <v>16.88202916967324</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>35.75414907332023</v>
+        <v>35.75414907328408</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.89609161190375</v>
+        <v>43.89609161185987</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>8.620954637122473</v>
+        <v>8.620954637149531</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>40.89446796305193</v>
+        <v>40.89446796305534</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>48.90367795998744</v>
+        <v>48.90367795998596</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>17.8297301709916</v>
+        <v>17.82973017102253</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>32.33930621111832</v>
+        <v>32.33930621115652</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>39.0176875743368</v>
+        <v>39.01768757436465</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>30.78940895314573</v>
+        <v>30.78940895319234</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>38.55738561796814</v>
+        <v>38.55738561796041</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>44.06298396956182</v>
+        <v>44.06298396964231</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>44.34704006381238</v>
+        <v>44.3470400637835</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>51.86444652413567</v>
+        <v>51.86444652412714</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>56.42404963990722</v>
+        <v>56.42404963989801</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>25.50304665610982</v>
+        <v>25.50304665613336</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>44.37694987383244</v>
+        <v>44.37694987380674</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>52.51984522955862</v>
+        <v>52.51984522956567</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>0.2568844255648273</v>
+        <v>0.2568844255575513</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>32.52474634404367</v>
+        <v>32.52474634404947</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>40.53040877690406</v>
+        <v>40.53040877691122</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>9.472638537430917</v>
+        <v>9.472638537465478</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>23.97690251142907</v>
+        <v>23.97690251140815</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>30.65239131143547</v>
+        <v>30.65239131144639</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.42546516673766</v>
+        <v>22.42546516668445</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>30.18888381487121</v>
+        <v>30.18888381487678</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>35.69207368799956</v>
+        <v>35.69207368800036</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>35.97407254019557</v>
+        <v>35.97407254019364</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>43.48789824772458</v>
+        <v>43.48789824773743</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>48.04541021401777</v>
+        <v>48.04541021399412</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>17.13351291882312</v>
+        <v>17.13351291883188</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.00048235027267</v>
+        <v>36.00048235030268</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>44.14051582660166</v>
+        <v>44.14051582659166</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>3.829820612067998</v>
+        <v>3.829820612062541</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.10189532355351</v>
+        <v>36.10189532356238</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>44.10986938421237</v>
+        <v>44.10986938419259</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>13.03855296945184</v>
+        <v>13.03855296946377</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>27.5468270090549</v>
+        <v>27.5468270090582</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>34.22406291536978</v>
+        <v>34.22406291539888</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.99603581757705</v>
+        <v>25.99603581758682</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>33.7628906633308</v>
+        <v>33.76289066335445</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>39.26749602928904</v>
+        <v>39.26749602933713</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>39.55024855452947</v>
+        <v>39.5502485545829</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>47.06699521047127</v>
+        <v>47.06699521045899</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>51.62574192292524</v>
+        <v>51.62574192295468</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>20.70799768926448</v>
+        <v>20.70799768930984</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>39.58042263798401</v>
+        <v>39.58042263795627</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>47.72205689359529</v>
+        <v>47.72205689360245</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>12.44728022932346</v>
+        <v>12.44728022931982</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>44.72086678722243</v>
+        <v>44.7208667872297</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>52.72975774528114</v>
+        <v>52.72975774523737</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>21.65656448199544</v>
+        <v>21.65656448204933</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.16642158907742</v>
+        <v>36.1664215890947</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>42.84449947462743</v>
+        <v>42.84449947464176</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>34.61644675107421</v>
+        <v>34.61644675110741</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>42.38473572909125</v>
+        <v>42.38473572911945</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>47.8900694201612</v>
+        <v>47.89006942018224</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>48.17421601570114</v>
+        <v>48.17421601576662</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>55.69164737340937</v>
+        <v>55.69164737343939</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>60.2508847263792</v>
+        <v>60.25088472641547</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>29.32971351968555</v>
+        <v>29.32971351963723</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>48.20392181990629</v>
+        <v>48.20392181994244</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>56.34650886687719</v>
+        <v>56.34650886688413</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-3.316492274785368</v>
+        <v>-3.31649227478173</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>28.95264018174188</v>
+        <v>28.95264018174461</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.95867774165057</v>
+        <v>36.95867774167194</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>5.898812072704537</v>
+        <v>5.898812072705788</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>20.40375622539633</v>
+        <v>20.40375622539951</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>27.07956241360565</v>
+        <v>27.07956241357098</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>18.85218479874433</v>
+        <v>18.85218479873102</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.61603039619816</v>
+        <v>26.61603039618247</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>32.11949069287751</v>
+        <v>32.11949069289115</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>32.40166212059497</v>
+        <v>32.40166212054847</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>39.91584311365212</v>
+        <v>39.91584311369385</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>44.4735695174198</v>
+        <v>44.47356951743196</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>13.5600750006283</v>
+        <v>13.56007500064876</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>32.42798855625787</v>
+        <v>32.42798855624491</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>40.56829108203643</v>
+        <v>40.56829108203996</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>0.2560013109934616</v>
+        <v>0.2560013110271129</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>32.52934670349335</v>
+        <v>32.52934670345766</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>40.53769605847534</v>
+        <v>40.53769605842111</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>9.464283698968153</v>
+        <v>9.46428369896622</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>23.9732380384963</v>
+        <v>23.97323803849755</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>30.6507914857959</v>
+        <v>30.65079148581739</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>22.42231283096643</v>
+        <v>22.42231283096097</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.18959472617697</v>
+        <v>30.18959472616049</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>35.69447064649304</v>
+        <v>35.69447064651464</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>35.97739576510954</v>
+        <v>35.97739576511295</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>43.49449780161827</v>
+        <v>43.49449780160747</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>48.0534590314705</v>
+        <v>48.05345903142844</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>17.13411735251415</v>
+        <v>17.13411735250596</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.00748658039398</v>
+        <v>36.00748658036385</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>44.14939008024574</v>
+        <v>44.14939008028463</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>8.87342917204986</v>
+        <v>8.8734291720477</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>41.1482864824313</v>
+        <v>41.14828648244733</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>49.1575527635135</v>
+        <v>49.15755276350804</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>18.08226349228104</v>
+        <v>18.08226349224284</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.5928009830255</v>
+        <v>32.59280098308167</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>39.27119643468935</v>
+        <v>39.27119643470117</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>31.04269209873924</v>
+        <v>31.04269209869923</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>38.81140820507718</v>
+        <v>38.81140820510753</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>44.3170124721366</v>
+        <v>44.31701247215013</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>44.60133169727768</v>
+        <v>44.6013316972596</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>52.11911846994436</v>
+        <v>52.11911846994334</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>56.67857035957203</v>
+        <v>56.67857035959704</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>25.75580161552337</v>
+        <v>25.75580161554088</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>44.63095428200526</v>
+        <v>44.63095428196899</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>52.77381059202681</v>
+        <v>52.77381059196281</v>
       </c>
     </row>
   </sheetData>
